--- a/Liban Data/List of Municipalities.xlsx
+++ b/Liban Data/List of Municipalities.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1779B0A2-7326-4F86-8F3B-D6985D2371FD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBC87F0-230E-4872-894F-ABFABE762DB8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9269" uniqueCount="2110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9270" uniqueCount="2110">
   <si>
     <t>عكار</t>
   </si>
@@ -6774,13 +6774,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C1031"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C129" sqref="C129"/>
+    <sheetView tabSelected="1" topLeftCell="A436" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C449" sqref="C449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1">
@@ -11718,7 +11720,9 @@
       <c r="B449" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="C449" s="2"/>
+      <c r="C449" s="2" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="450" spans="1:3" ht="15" thickBot="1">
       <c r="A450" s="1" t="s">
@@ -18111,7 +18115,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="1031" spans="1:3" ht="18">
+    <row r="1031" spans="1:3" ht="17.399999999999999">
       <c r="A1031" s="3"/>
     </row>
   </sheetData>
@@ -18124,8 +18128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70166688-03DE-45FE-B796-51DDDDBFDF10}">
   <dimension ref="A1:C1031"/>
   <sheetViews>
-    <sheetView topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="C135" sqref="C135"/>
+    <sheetView topLeftCell="A437" workbookViewId="0">
+      <selection activeCell="C449" sqref="C449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -18134,7 +18138,7 @@
     <col min="3" max="3" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28.8" thickBot="1">
+    <row r="1" spans="1:3" ht="15" thickBot="1">
       <c r="A1" s="5" t="s">
         <v>1049</v>
       </c>
@@ -18145,7 +18149,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="28.2" thickBot="1">
+    <row r="2" spans="1:3" ht="15" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>1052</v>
       </c>
@@ -18167,7 +18171,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="42" thickBot="1">
+    <row r="4" spans="1:3" ht="28.2" thickBot="1">
       <c r="A4" s="1" t="s">
         <v>1052</v>
       </c>
@@ -18189,7 +18193,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="28.2" thickBot="1">
+    <row r="6" spans="1:3" ht="15" thickBot="1">
       <c r="A6" s="1" t="s">
         <v>1052</v>
       </c>
@@ -18200,7 +18204,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="42" thickBot="1">
+    <row r="7" spans="1:3" ht="15" thickBot="1">
       <c r="A7" s="2" t="s">
         <v>1052</v>
       </c>
@@ -18211,7 +18215,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="42" thickBot="1">
+    <row r="8" spans="1:3" ht="15" thickBot="1">
       <c r="A8" s="1" t="s">
         <v>1052</v>
       </c>
@@ -18233,7 +18237,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="28.2" thickBot="1">
+    <row r="10" spans="1:3" ht="15" thickBot="1">
       <c r="A10" s="1" t="s">
         <v>1052</v>
       </c>
@@ -18244,7 +18248,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="42" thickBot="1">
+    <row r="11" spans="1:3" ht="15" thickBot="1">
       <c r="A11" s="2" t="s">
         <v>1052</v>
       </c>
@@ -18266,7 +18270,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="28.2" thickBot="1">
+    <row r="13" spans="1:3" ht="15" thickBot="1">
       <c r="A13" s="2" t="s">
         <v>1052</v>
       </c>
@@ -18277,7 +18281,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="42" thickBot="1">
+    <row r="14" spans="1:3" ht="15" thickBot="1">
       <c r="A14" s="1" t="s">
         <v>1052</v>
       </c>
@@ -18288,7 +18292,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="28.2" thickBot="1">
+    <row r="15" spans="1:3" ht="15" thickBot="1">
       <c r="A15" s="2" t="s">
         <v>1052</v>
       </c>
@@ -18299,7 +18303,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="28.2" thickBot="1">
+    <row r="16" spans="1:3" ht="15" thickBot="1">
       <c r="A16" s="1" t="s">
         <v>1052</v>
       </c>
@@ -18310,7 +18314,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="42" thickBot="1">
+    <row r="17" spans="1:3" ht="15" thickBot="1">
       <c r="A17" s="2" t="s">
         <v>1052</v>
       </c>
@@ -18332,7 +18336,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="28.2" thickBot="1">
+    <row r="19" spans="1:3" ht="15" thickBot="1">
       <c r="A19" s="2" t="s">
         <v>1052</v>
       </c>
@@ -18343,7 +18347,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="28.2" thickBot="1">
+    <row r="20" spans="1:3" ht="15" thickBot="1">
       <c r="A20" s="1" t="s">
         <v>1052</v>
       </c>
@@ -18354,7 +18358,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="28.2" thickBot="1">
+    <row r="21" spans="1:3" ht="15" thickBot="1">
       <c r="A21" s="2" t="s">
         <v>1052</v>
       </c>
@@ -18365,7 +18369,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="28.2" thickBot="1">
+    <row r="22" spans="1:3" ht="15" thickBot="1">
       <c r="A22" s="1" t="s">
         <v>1052</v>
       </c>
@@ -18376,7 +18380,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="28.2" thickBot="1">
+    <row r="23" spans="1:3" ht="15" thickBot="1">
       <c r="A23" s="2" t="s">
         <v>1052</v>
       </c>
@@ -18387,7 +18391,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="28.2" thickBot="1">
+    <row r="24" spans="1:3" ht="15" thickBot="1">
       <c r="A24" s="1" t="s">
         <v>1052</v>
       </c>
@@ -18398,7 +18402,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="28.2" thickBot="1">
+    <row r="25" spans="1:3" ht="15" thickBot="1">
       <c r="A25" s="2" t="s">
         <v>1052</v>
       </c>
@@ -18409,7 +18413,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="28.2" thickBot="1">
+    <row r="26" spans="1:3" ht="15" thickBot="1">
       <c r="A26" s="1" t="s">
         <v>1052</v>
       </c>
@@ -18431,7 +18435,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="28.2" thickBot="1">
+    <row r="28" spans="1:3" ht="15" thickBot="1">
       <c r="A28" s="1" t="s">
         <v>1052</v>
       </c>
@@ -18442,7 +18446,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="28.2" thickBot="1">
+    <row r="29" spans="1:3" ht="15" thickBot="1">
       <c r="A29" s="2" t="s">
         <v>1052</v>
       </c>
@@ -18453,7 +18457,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="28.2" thickBot="1">
+    <row r="30" spans="1:3" ht="15" thickBot="1">
       <c r="A30" s="1" t="s">
         <v>1052</v>
       </c>
@@ -18464,7 +18468,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="28.2" thickBot="1">
+    <row r="31" spans="1:3" ht="15" thickBot="1">
       <c r="A31" s="2" t="s">
         <v>1052</v>
       </c>
@@ -18519,7 +18523,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="42" thickBot="1">
+    <row r="36" spans="1:3" ht="15" thickBot="1">
       <c r="A36" s="1" t="s">
         <v>1052</v>
       </c>
@@ -18541,7 +18545,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="28.2" thickBot="1">
+    <row r="38" spans="1:3" ht="15" thickBot="1">
       <c r="A38" s="1" t="s">
         <v>1052</v>
       </c>
@@ -18552,7 +18556,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="42" thickBot="1">
+    <row r="39" spans="1:3" ht="15" thickBot="1">
       <c r="A39" s="2" t="s">
         <v>1052</v>
       </c>
@@ -18563,7 +18567,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="28.2" thickBot="1">
+    <row r="40" spans="1:3" ht="15" thickBot="1">
       <c r="A40" s="1" t="s">
         <v>1052</v>
       </c>
@@ -18585,7 +18589,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="28.2" thickBot="1">
+    <row r="42" spans="1:3" ht="15" thickBot="1">
       <c r="A42" s="1" t="s">
         <v>1052</v>
       </c>
@@ -18596,7 +18600,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="42" thickBot="1">
+    <row r="43" spans="1:3" ht="15" thickBot="1">
       <c r="A43" s="2" t="s">
         <v>1052</v>
       </c>
@@ -18607,7 +18611,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="28.2" thickBot="1">
+    <row r="44" spans="1:3" ht="15" thickBot="1">
       <c r="A44" s="1" t="s">
         <v>1052</v>
       </c>
@@ -18618,7 +18622,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="55.8" thickBot="1">
+    <row r="45" spans="1:3" ht="28.2" thickBot="1">
       <c r="A45" s="2" t="s">
         <v>1052</v>
       </c>
@@ -18629,7 +18633,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="83.4" thickBot="1">
+    <row r="46" spans="1:3" ht="42" thickBot="1">
       <c r="A46" s="1" t="s">
         <v>1052</v>
       </c>
@@ -18640,7 +18644,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="28.2" thickBot="1">
+    <row r="47" spans="1:3" ht="15" thickBot="1">
       <c r="A47" s="2" t="s">
         <v>1052</v>
       </c>
@@ -18651,7 +18655,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="28.2" thickBot="1">
+    <row r="48" spans="1:3" ht="15" thickBot="1">
       <c r="A48" s="1" t="s">
         <v>1052</v>
       </c>
@@ -18662,7 +18666,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="42" thickBot="1">
+    <row r="49" spans="1:3" ht="15" thickBot="1">
       <c r="A49" s="2" t="s">
         <v>1052</v>
       </c>
@@ -18695,7 +18699,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="69.599999999999994" thickBot="1">
+    <row r="52" spans="1:3" ht="28.2" thickBot="1">
       <c r="A52" s="1" t="s">
         <v>1052</v>
       </c>
@@ -18706,7 +18710,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="28.2" thickBot="1">
+    <row r="53" spans="1:3" ht="15" thickBot="1">
       <c r="A53" s="2" t="s">
         <v>1052</v>
       </c>
@@ -18772,7 +18776,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="42" thickBot="1">
+    <row r="59" spans="1:3" ht="15" thickBot="1">
       <c r="A59" s="2" t="s">
         <v>1052</v>
       </c>
@@ -18816,7 +18820,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="28.2" thickBot="1">
+    <row r="63" spans="1:3" ht="15" thickBot="1">
       <c r="A63" s="2" t="s">
         <v>1052</v>
       </c>
@@ -18827,7 +18831,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="42" thickBot="1">
+    <row r="64" spans="1:3" ht="15" thickBot="1">
       <c r="A64" s="1" t="s">
         <v>1052</v>
       </c>
@@ -18849,7 +18853,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="42" thickBot="1">
+    <row r="66" spans="1:3" ht="15" thickBot="1">
       <c r="A66" s="1" t="s">
         <v>1052</v>
       </c>
@@ -18860,7 +18864,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="55.8" thickBot="1">
+    <row r="67" spans="1:3" ht="28.2" thickBot="1">
       <c r="A67" s="2" t="s">
         <v>1052</v>
       </c>
@@ -18871,7 +18875,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="28.2" thickBot="1">
+    <row r="68" spans="1:3" ht="15" thickBot="1">
       <c r="A68" s="1" t="s">
         <v>1052</v>
       </c>
@@ -18882,7 +18886,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="28.2" thickBot="1">
+    <row r="69" spans="1:3" ht="15" thickBot="1">
       <c r="A69" s="2" t="s">
         <v>1052</v>
       </c>
@@ -18893,7 +18897,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="28.2" thickBot="1">
+    <row r="70" spans="1:3" ht="15" thickBot="1">
       <c r="A70" s="1" t="s">
         <v>1052</v>
       </c>
@@ -18904,7 +18908,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="42" thickBot="1">
+    <row r="71" spans="1:3" ht="28.2" thickBot="1">
       <c r="A71" s="2" t="s">
         <v>1052</v>
       </c>
@@ -18915,7 +18919,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="28.2" thickBot="1">
+    <row r="72" spans="1:3" ht="15" thickBot="1">
       <c r="A72" s="1" t="s">
         <v>1052</v>
       </c>
@@ -18926,7 +18930,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="28.2" thickBot="1">
+    <row r="73" spans="1:3" ht="15" thickBot="1">
       <c r="A73" s="2" t="s">
         <v>1052</v>
       </c>
@@ -18948,7 +18952,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="28.2" thickBot="1">
+    <row r="75" spans="1:3" ht="15" thickBot="1">
       <c r="A75" s="2" t="s">
         <v>1052</v>
       </c>
@@ -18959,7 +18963,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="28.2" thickBot="1">
+    <row r="76" spans="1:3" ht="15" thickBot="1">
       <c r="A76" s="1" t="s">
         <v>1052</v>
       </c>
@@ -18981,7 +18985,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="42" thickBot="1">
+    <row r="78" spans="1:3" ht="15" thickBot="1">
       <c r="A78" s="1" t="s">
         <v>1052</v>
       </c>
@@ -18992,7 +18996,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="28.2" thickBot="1">
+    <row r="79" spans="1:3" ht="15" thickBot="1">
       <c r="A79" s="2" t="s">
         <v>1052</v>
       </c>
@@ -19014,7 +19018,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="28.2" thickBot="1">
+    <row r="81" spans="1:3" ht="15" thickBot="1">
       <c r="A81" s="2" t="s">
         <v>1052</v>
       </c>
@@ -19025,7 +19029,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="28.2" thickBot="1">
+    <row r="82" spans="1:3" ht="15" thickBot="1">
       <c r="A82" s="1" t="s">
         <v>1052</v>
       </c>
@@ -19036,7 +19040,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="28.2" thickBot="1">
+    <row r="83" spans="1:3" ht="15" thickBot="1">
       <c r="A83" s="2" t="s">
         <v>1052</v>
       </c>
@@ -19047,7 +19051,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="28.2" thickBot="1">
+    <row r="84" spans="1:3" ht="15" thickBot="1">
       <c r="A84" s="1" t="s">
         <v>1052</v>
       </c>
@@ -19058,7 +19062,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="42" thickBot="1">
+    <row r="85" spans="1:3" ht="28.2" thickBot="1">
       <c r="A85" s="2" t="s">
         <v>1052</v>
       </c>
@@ -19069,7 +19073,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="28.2" thickBot="1">
+    <row r="86" spans="1:3" ht="15" thickBot="1">
       <c r="A86" s="1" t="s">
         <v>1052</v>
       </c>
@@ -19080,7 +19084,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="42" thickBot="1">
+    <row r="87" spans="1:3" ht="28.2" thickBot="1">
       <c r="A87" s="2" t="s">
         <v>1052</v>
       </c>
@@ -19113,7 +19117,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="28.2" thickBot="1">
+    <row r="90" spans="1:3" ht="15" thickBot="1">
       <c r="A90" s="1" t="s">
         <v>1052</v>
       </c>
@@ -19124,7 +19128,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="83.4" thickBot="1">
+    <row r="91" spans="1:3" ht="42" thickBot="1">
       <c r="A91" s="2" t="s">
         <v>1052</v>
       </c>
@@ -19135,7 +19139,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="28.2" thickBot="1">
+    <row r="92" spans="1:3" ht="15" thickBot="1">
       <c r="A92" s="1" t="s">
         <v>1052</v>
       </c>
@@ -19146,7 +19150,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="69.599999999999994" thickBot="1">
+    <row r="93" spans="1:3" ht="28.2" thickBot="1">
       <c r="A93" s="2" t="s">
         <v>1052</v>
       </c>
@@ -19179,7 +19183,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="42" thickBot="1">
+    <row r="96" spans="1:3" ht="15" thickBot="1">
       <c r="A96" s="1" t="s">
         <v>1052</v>
       </c>
@@ -19190,7 +19194,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="28.2" thickBot="1">
+    <row r="97" spans="1:3" ht="15" thickBot="1">
       <c r="A97" s="2" t="s">
         <v>1052</v>
       </c>
@@ -19201,7 +19205,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="28.2" thickBot="1">
+    <row r="98" spans="1:3" ht="15" thickBot="1">
       <c r="A98" s="1" t="s">
         <v>1052</v>
       </c>
@@ -19234,7 +19238,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="28.2" thickBot="1">
+    <row r="101" spans="1:3" ht="15" thickBot="1">
       <c r="A101" s="2" t="s">
         <v>1052</v>
       </c>
@@ -19256,7 +19260,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="28.2" thickBot="1">
+    <row r="103" spans="1:3" ht="15" thickBot="1">
       <c r="A103" s="2" t="s">
         <v>1052</v>
       </c>
@@ -19278,7 +19282,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="28.2" thickBot="1">
+    <row r="105" spans="1:3" ht="15" thickBot="1">
       <c r="A105" s="2" t="s">
         <v>1052</v>
       </c>
@@ -19289,7 +19293,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="28.2" thickBot="1">
+    <row r="106" spans="1:3" ht="15" thickBot="1">
       <c r="A106" s="1" t="s">
         <v>1052</v>
       </c>
@@ -19300,7 +19304,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="28.2" thickBot="1">
+    <row r="107" spans="1:3" ht="15" thickBot="1">
       <c r="A107" s="2" t="s">
         <v>1052</v>
       </c>
@@ -19333,7 +19337,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="42" thickBot="1">
+    <row r="110" spans="1:3" ht="15" thickBot="1">
       <c r="A110" s="1" t="s">
         <v>1052</v>
       </c>
@@ -19366,7 +19370,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="28.2" thickBot="1">
+    <row r="113" spans="1:3" ht="15" thickBot="1">
       <c r="A113" s="2" t="s">
         <v>1052</v>
       </c>
@@ -19377,7 +19381,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="42" thickBot="1">
+    <row r="114" spans="1:3" ht="15" thickBot="1">
       <c r="A114" s="1" t="s">
         <v>1052</v>
       </c>
@@ -19388,7 +19392,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="42" thickBot="1">
+    <row r="115" spans="1:3" ht="15" thickBot="1">
       <c r="A115" s="2" t="s">
         <v>1052</v>
       </c>
@@ -19399,7 +19403,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="42" thickBot="1">
+    <row r="116" spans="1:3" ht="15" thickBot="1">
       <c r="A116" s="1" t="s">
         <v>1052</v>
       </c>
@@ -19410,7 +19414,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="42" thickBot="1">
+    <row r="117" spans="1:3" ht="15" thickBot="1">
       <c r="A117" s="2" t="s">
         <v>1052</v>
       </c>
@@ -19432,7 +19436,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="55.8" thickBot="1">
+    <row r="119" spans="1:3" ht="28.2" thickBot="1">
       <c r="A119" s="2" t="s">
         <v>1052</v>
       </c>
@@ -19443,7 +19447,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="55.8" thickBot="1">
+    <row r="120" spans="1:3" ht="28.2" thickBot="1">
       <c r="A120" s="1" t="s">
         <v>1052</v>
       </c>
@@ -19454,7 +19458,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="28.2" thickBot="1">
+    <row r="121" spans="1:3" ht="15" thickBot="1">
       <c r="A121" s="2" t="s">
         <v>1052</v>
       </c>
@@ -19465,7 +19469,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="42" thickBot="1">
+    <row r="122" spans="1:3" ht="15" thickBot="1">
       <c r="A122" s="1" t="s">
         <v>1052</v>
       </c>
@@ -19476,7 +19480,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="42" thickBot="1">
+    <row r="123" spans="1:3" ht="15" thickBot="1">
       <c r="A123" s="2" t="s">
         <v>1052</v>
       </c>
@@ -19520,7 +19524,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="42" thickBot="1">
+    <row r="127" spans="1:3" ht="15" thickBot="1">
       <c r="A127" s="2" t="s">
         <v>1052</v>
       </c>
@@ -19531,7 +19535,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="28.2" thickBot="1">
+    <row r="128" spans="1:3" ht="15" thickBot="1">
       <c r="A128" s="1" t="s">
         <v>1052</v>
       </c>
@@ -19564,7 +19568,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="42" thickBot="1">
+    <row r="131" spans="1:3" ht="28.2" thickBot="1">
       <c r="A131" s="2" t="s">
         <v>1180</v>
       </c>
@@ -19575,7 +19579,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="42" thickBot="1">
+    <row r="132" spans="1:3" ht="28.2" thickBot="1">
       <c r="A132" s="1" t="s">
         <v>1180</v>
       </c>
@@ -19619,7 +19623,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="55.8" thickBot="1">
+    <row r="136" spans="1:3" ht="28.2" thickBot="1">
       <c r="A136" s="1" t="s">
         <v>1180</v>
       </c>
@@ -19630,7 +19634,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="69.599999999999994" thickBot="1">
+    <row r="137" spans="1:3" ht="28.2" thickBot="1">
       <c r="A137" s="2" t="s">
         <v>1180</v>
       </c>
@@ -19652,7 +19656,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="42" thickBot="1">
+    <row r="139" spans="1:3" ht="28.2" thickBot="1">
       <c r="A139" s="2" t="s">
         <v>1180</v>
       </c>
@@ -19707,7 +19711,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="55.8" thickBot="1">
+    <row r="144" spans="1:3" ht="28.2" thickBot="1">
       <c r="A144" s="1" t="s">
         <v>1180</v>
       </c>
@@ -19762,7 +19766,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="42" thickBot="1">
+    <row r="149" spans="1:3" ht="28.2" thickBot="1">
       <c r="A149" s="2" t="s">
         <v>1180</v>
       </c>
@@ -19817,7 +19821,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="42" thickBot="1">
+    <row r="154" spans="1:3" ht="28.2" thickBot="1">
       <c r="A154" s="1" t="s">
         <v>1180</v>
       </c>
@@ -19927,7 +19931,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="42" thickBot="1">
+    <row r="164" spans="1:3" ht="28.2" thickBot="1">
       <c r="A164" s="1" t="s">
         <v>1180</v>
       </c>
@@ -19938,7 +19942,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="55.8" thickBot="1">
+    <row r="165" spans="1:3" ht="28.2" thickBot="1">
       <c r="A165" s="2" t="s">
         <v>1180</v>
       </c>
@@ -19949,7 +19953,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="55.8" thickBot="1">
+    <row r="166" spans="1:3" ht="28.2" thickBot="1">
       <c r="A166" s="1" t="s">
         <v>1180</v>
       </c>
@@ -20015,7 +20019,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="55.8" thickBot="1">
+    <row r="172" spans="1:3" ht="28.2" thickBot="1">
       <c r="A172" s="1" t="s">
         <v>1180</v>
       </c>
@@ -20026,7 +20030,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="55.8" thickBot="1">
+    <row r="173" spans="1:3" ht="28.2" thickBot="1">
       <c r="A173" s="2" t="s">
         <v>1180</v>
       </c>
@@ -20048,7 +20052,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="42" thickBot="1">
+    <row r="175" spans="1:3" ht="28.2" thickBot="1">
       <c r="A175" s="2" t="s">
         <v>1180</v>
       </c>
@@ -20070,7 +20074,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="55.8" thickBot="1">
+    <row r="177" spans="1:3" ht="28.2" thickBot="1">
       <c r="A177" s="2" t="s">
         <v>1180</v>
       </c>
@@ -20081,7 +20085,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="42" thickBot="1">
+    <row r="178" spans="1:3" ht="28.2" thickBot="1">
       <c r="A178" s="1" t="s">
         <v>1180</v>
       </c>
@@ -20092,7 +20096,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="42" thickBot="1">
+    <row r="179" spans="1:3" ht="28.2" thickBot="1">
       <c r="A179" s="2" t="s">
         <v>1180</v>
       </c>
@@ -20103,7 +20107,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="69.599999999999994" thickBot="1">
+    <row r="180" spans="1:3" ht="28.2" thickBot="1">
       <c r="A180" s="1" t="s">
         <v>1180</v>
       </c>
@@ -20169,7 +20173,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="42" thickBot="1">
+    <row r="186" spans="1:3" ht="28.2" thickBot="1">
       <c r="A186" s="1" t="s">
         <v>1180</v>
       </c>
@@ -20191,7 +20195,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="42" thickBot="1">
+    <row r="188" spans="1:3" ht="28.2" thickBot="1">
       <c r="A188" s="1" t="s">
         <v>1180</v>
       </c>
@@ -20224,7 +20228,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="42" thickBot="1">
+    <row r="191" spans="1:3" ht="28.2" thickBot="1">
       <c r="A191" s="2" t="s">
         <v>1180</v>
       </c>
@@ -20235,7 +20239,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="42" thickBot="1">
+    <row r="192" spans="1:3" ht="28.2" thickBot="1">
       <c r="A192" s="1" t="s">
         <v>1180</v>
       </c>
@@ -20279,7 +20283,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="42" thickBot="1">
+    <row r="196" spans="1:3" ht="28.2" thickBot="1">
       <c r="A196" s="1" t="s">
         <v>1180</v>
       </c>
@@ -20290,7 +20294,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="42" thickBot="1">
+    <row r="197" spans="1:3" ht="28.2" thickBot="1">
       <c r="A197" s="2" t="s">
         <v>1180</v>
       </c>
@@ -20301,7 +20305,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="42" thickBot="1">
+    <row r="198" spans="1:3" ht="28.2" thickBot="1">
       <c r="A198" s="1" t="s">
         <v>1180</v>
       </c>
@@ -20356,7 +20360,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="42" thickBot="1">
+    <row r="203" spans="1:3" ht="28.2" thickBot="1">
       <c r="A203" s="2" t="s">
         <v>1180</v>
       </c>
@@ -20367,7 +20371,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="83.4" thickBot="1">
+    <row r="204" spans="1:3" ht="42" thickBot="1">
       <c r="A204" s="1" t="s">
         <v>1180</v>
       </c>
@@ -20422,7 +20426,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="42" thickBot="1">
+    <row r="209" spans="1:3" ht="28.2" thickBot="1">
       <c r="A209" s="2" t="s">
         <v>1180</v>
       </c>
@@ -20444,7 +20448,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="42" thickBot="1">
+    <row r="211" spans="1:3" ht="28.2" thickBot="1">
       <c r="A211" s="2" t="s">
         <v>1263</v>
       </c>
@@ -20477,7 +20481,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="55.8" thickBot="1">
+    <row r="214" spans="1:3" ht="28.2" thickBot="1">
       <c r="A214" s="1" t="s">
         <v>1263</v>
       </c>
@@ -20499,7 +20503,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="42" thickBot="1">
+    <row r="216" spans="1:3" ht="28.2" thickBot="1">
       <c r="A216" s="1" t="s">
         <v>1263</v>
       </c>
@@ -20532,7 +20536,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="42" thickBot="1">
+    <row r="219" spans="1:3" ht="28.2" thickBot="1">
       <c r="A219" s="2" t="s">
         <v>1263</v>
       </c>
@@ -20565,7 +20569,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="42" thickBot="1">
+    <row r="222" spans="1:3" ht="28.2" thickBot="1">
       <c r="A222" s="1" t="s">
         <v>1263</v>
       </c>
@@ -20631,7 +20635,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="55.8" thickBot="1">
+    <row r="228" spans="1:3" ht="28.2" thickBot="1">
       <c r="A228" s="1" t="s">
         <v>1263</v>
       </c>
@@ -20642,7 +20646,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="55.8" thickBot="1">
+    <row r="229" spans="1:3" ht="28.2" thickBot="1">
       <c r="A229" s="2" t="s">
         <v>1263</v>
       </c>
@@ -20653,7 +20657,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="42" thickBot="1">
+    <row r="230" spans="1:3" ht="28.2" thickBot="1">
       <c r="A230" s="1" t="s">
         <v>1263</v>
       </c>
@@ -20664,7 +20668,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="42" thickBot="1">
+    <row r="231" spans="1:3" ht="28.2" thickBot="1">
       <c r="A231" s="2" t="s">
         <v>1263</v>
       </c>
@@ -20741,7 +20745,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="238" spans="1:3" ht="42" thickBot="1">
+    <row r="238" spans="1:3" ht="28.2" thickBot="1">
       <c r="A238" s="1" t="s">
         <v>1263</v>
       </c>
@@ -20763,7 +20767,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="42" thickBot="1">
+    <row r="240" spans="1:3" ht="28.2" thickBot="1">
       <c r="A240" s="1" t="s">
         <v>1263</v>
       </c>
@@ -20785,7 +20789,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="42" thickBot="1">
+    <row r="242" spans="1:3" ht="28.2" thickBot="1">
       <c r="A242" s="1" t="s">
         <v>1263</v>
       </c>
@@ -20818,7 +20822,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="55.8" thickBot="1">
+    <row r="245" spans="1:3" ht="28.2" thickBot="1">
       <c r="A245" s="2" t="s">
         <v>1263</v>
       </c>
@@ -20884,7 +20888,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="42" thickBot="1">
+    <row r="251" spans="1:3" ht="28.2" thickBot="1">
       <c r="A251" s="2" t="s">
         <v>1263</v>
       </c>
@@ -20906,7 +20910,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="42" thickBot="1">
+    <row r="253" spans="1:3" ht="28.2" thickBot="1">
       <c r="A253" s="2" t="s">
         <v>1263</v>
       </c>
@@ -20917,7 +20921,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="83.4" thickBot="1">
+    <row r="254" spans="1:3" ht="42" thickBot="1">
       <c r="A254" s="1" t="s">
         <v>1263</v>
       </c>
@@ -20928,7 +20932,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="55.8" thickBot="1">
+    <row r="255" spans="1:3" ht="28.2" thickBot="1">
       <c r="A255" s="2" t="s">
         <v>1263</v>
       </c>
@@ -20939,7 +20943,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="42" thickBot="1">
+    <row r="256" spans="1:3" ht="28.2" thickBot="1">
       <c r="A256" s="1" t="s">
         <v>1263</v>
       </c>
@@ -21104,7 +21108,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="28.2" thickBot="1">
+    <row r="271" spans="1:3" ht="15" thickBot="1">
       <c r="A271" s="2" t="s">
         <v>1263</v>
       </c>
@@ -21115,7 +21119,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="28.2" thickBot="1">
+    <row r="272" spans="1:3" ht="15" thickBot="1">
       <c r="A272" s="1" t="s">
         <v>1263</v>
       </c>
@@ -21148,7 +21152,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="275" spans="1:3" ht="28.2" thickBot="1">
+    <row r="275" spans="1:3" ht="15" thickBot="1">
       <c r="A275" s="2" t="s">
         <v>1263</v>
       </c>
@@ -21170,7 +21174,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="28.2" thickBot="1">
+    <row r="277" spans="1:3" ht="15" thickBot="1">
       <c r="A277" s="2" t="s">
         <v>1263</v>
       </c>
@@ -21203,7 +21207,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="28.2" thickBot="1">
+    <row r="280" spans="1:3" ht="15" thickBot="1">
       <c r="A280" s="1" t="s">
         <v>1263</v>
       </c>
@@ -21214,7 +21218,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="281" spans="1:3" ht="28.2" thickBot="1">
+    <row r="281" spans="1:3" ht="15" thickBot="1">
       <c r="A281" s="2" t="s">
         <v>1263</v>
       </c>
@@ -21247,7 +21251,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="28.2" thickBot="1">
+    <row r="284" spans="1:3" ht="15" thickBot="1">
       <c r="A284" s="1" t="s">
         <v>1263</v>
       </c>
@@ -21258,7 +21262,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="28.2" thickBot="1">
+    <row r="285" spans="1:3" ht="15" thickBot="1">
       <c r="A285" s="2" t="s">
         <v>1263</v>
       </c>
@@ -21269,7 +21273,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="28.2" thickBot="1">
+    <row r="286" spans="1:3" ht="15" thickBot="1">
       <c r="A286" s="1" t="s">
         <v>1263</v>
       </c>
@@ -21280,7 +21284,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="28.2" thickBot="1">
+    <row r="287" spans="1:3" ht="15" thickBot="1">
       <c r="A287" s="2" t="s">
         <v>1263</v>
       </c>
@@ -21291,7 +21295,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="288" spans="1:3" ht="28.2" thickBot="1">
+    <row r="288" spans="1:3" ht="15" thickBot="1">
       <c r="A288" s="1" t="s">
         <v>1263</v>
       </c>
@@ -21302,7 +21306,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="289" spans="1:3" ht="55.8" thickBot="1">
+    <row r="289" spans="1:3" ht="28.2" thickBot="1">
       <c r="A289" s="2" t="s">
         <v>1263</v>
       </c>
@@ -21313,7 +21317,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="290" spans="1:3" ht="28.2" thickBot="1">
+    <row r="290" spans="1:3" ht="15" thickBot="1">
       <c r="A290" s="1" t="s">
         <v>1263</v>
       </c>
@@ -21335,7 +21339,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="292" spans="1:3" ht="42" thickBot="1">
+    <row r="292" spans="1:3" ht="28.2" thickBot="1">
       <c r="A292" s="1" t="s">
         <v>1263</v>
       </c>
@@ -21346,7 +21350,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="293" spans="1:3" ht="28.2" thickBot="1">
+    <row r="293" spans="1:3" ht="15" thickBot="1">
       <c r="A293" s="2" t="s">
         <v>1263</v>
       </c>
@@ -21357,7 +21361,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="294" spans="1:3" ht="28.2" thickBot="1">
+    <row r="294" spans="1:3" ht="15" thickBot="1">
       <c r="A294" s="1" t="s">
         <v>1263</v>
       </c>
@@ -21368,7 +21372,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="295" spans="1:3" ht="28.2" thickBot="1">
+    <row r="295" spans="1:3" ht="15" thickBot="1">
       <c r="A295" s="2" t="s">
         <v>1263</v>
       </c>
@@ -21379,7 +21383,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="296" spans="1:3" ht="69.599999999999994" thickBot="1">
+    <row r="296" spans="1:3" ht="28.2" thickBot="1">
       <c r="A296" s="1" t="s">
         <v>1263</v>
       </c>
@@ -21401,7 +21405,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="298" spans="1:3" ht="42" thickBot="1">
+    <row r="298" spans="1:3" ht="15" thickBot="1">
       <c r="A298" s="1" t="s">
         <v>1353</v>
       </c>
@@ -21412,7 +21416,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="299" spans="1:3" ht="28.2" thickBot="1">
+    <row r="299" spans="1:3" ht="15" thickBot="1">
       <c r="A299" s="2" t="s">
         <v>1353</v>
       </c>
@@ -21423,7 +21427,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="28.2" thickBot="1">
+    <row r="300" spans="1:3" ht="15" thickBot="1">
       <c r="A300" s="1" t="s">
         <v>1353</v>
       </c>
@@ -21434,7 +21438,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="301" spans="1:3" ht="28.2" thickBot="1">
+    <row r="301" spans="1:3" ht="15" thickBot="1">
       <c r="A301" s="2" t="s">
         <v>1353</v>
       </c>
@@ -21445,7 +21449,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="302" spans="1:3" ht="28.2" thickBot="1">
+    <row r="302" spans="1:3" ht="15" thickBot="1">
       <c r="A302" s="1" t="s">
         <v>1353</v>
       </c>
@@ -21456,7 +21460,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="303" spans="1:3" ht="28.2" thickBot="1">
+    <row r="303" spans="1:3" ht="15" thickBot="1">
       <c r="A303" s="2" t="s">
         <v>1353</v>
       </c>
@@ -21467,7 +21471,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="304" spans="1:3" ht="28.2" thickBot="1">
+    <row r="304" spans="1:3" ht="15" thickBot="1">
       <c r="A304" s="1" t="s">
         <v>1353</v>
       </c>
@@ -21478,7 +21482,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="42" thickBot="1">
+    <row r="305" spans="1:3" ht="28.2" thickBot="1">
       <c r="A305" s="2" t="s">
         <v>1353</v>
       </c>
@@ -21489,7 +21493,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="306" spans="1:3" ht="55.8" thickBot="1">
+    <row r="306" spans="1:3" ht="42" thickBot="1">
       <c r="A306" s="1" t="s">
         <v>1353</v>
       </c>
@@ -21500,7 +21504,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="28.2" thickBot="1">
+    <row r="307" spans="1:3" ht="15" thickBot="1">
       <c r="A307" s="2" t="s">
         <v>1353</v>
       </c>
@@ -21511,7 +21515,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="28.2" thickBot="1">
+    <row r="308" spans="1:3" ht="15" thickBot="1">
       <c r="A308" s="1" t="s">
         <v>1353</v>
       </c>
@@ -21522,7 +21526,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="309" spans="1:3" ht="28.2" thickBot="1">
+    <row r="309" spans="1:3" ht="15" thickBot="1">
       <c r="A309" s="2" t="s">
         <v>1353</v>
       </c>
@@ -21533,7 +21537,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="310" spans="1:3" ht="28.2" thickBot="1">
+    <row r="310" spans="1:3" ht="15" thickBot="1">
       <c r="A310" s="1" t="s">
         <v>1353</v>
       </c>
@@ -21544,7 +21548,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="311" spans="1:3" ht="28.2" thickBot="1">
+    <row r="311" spans="1:3" ht="15" thickBot="1">
       <c r="A311" s="2" t="s">
         <v>1353</v>
       </c>
@@ -21555,7 +21559,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="312" spans="1:3" ht="28.2" thickBot="1">
+    <row r="312" spans="1:3" ht="15" thickBot="1">
       <c r="A312" s="1" t="s">
         <v>1353</v>
       </c>
@@ -21566,7 +21570,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="313" spans="1:3" ht="69.599999999999994" thickBot="1">
+    <row r="313" spans="1:3" ht="28.2" thickBot="1">
       <c r="A313" s="2" t="s">
         <v>1353</v>
       </c>
@@ -21577,7 +21581,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="314" spans="1:3" ht="42" thickBot="1">
+    <row r="314" spans="1:3" ht="28.2" thickBot="1">
       <c r="A314" s="1" t="s">
         <v>1353</v>
       </c>
@@ -21588,7 +21592,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="315" spans="1:3" ht="42" thickBot="1">
+    <row r="315" spans="1:3" ht="28.2" thickBot="1">
       <c r="A315" s="2" t="s">
         <v>1353</v>
       </c>
@@ -21599,7 +21603,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="316" spans="1:3" ht="28.2" thickBot="1">
+    <row r="316" spans="1:3" ht="15" thickBot="1">
       <c r="A316" s="1" t="s">
         <v>1353</v>
       </c>
@@ -21610,7 +21614,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="317" spans="1:3" ht="28.2" thickBot="1">
+    <row r="317" spans="1:3" ht="15" thickBot="1">
       <c r="A317" s="2" t="s">
         <v>1353</v>
       </c>
@@ -21621,7 +21625,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="318" spans="1:3" ht="28.2" thickBot="1">
+    <row r="318" spans="1:3" ht="15" thickBot="1">
       <c r="A318" s="1" t="s">
         <v>1353</v>
       </c>
@@ -21632,7 +21636,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="319" spans="1:3" ht="28.2" thickBot="1">
+    <row r="319" spans="1:3" ht="15" thickBot="1">
       <c r="A319" s="2" t="s">
         <v>1353</v>
       </c>
@@ -21643,7 +21647,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="320" spans="1:3" ht="28.2" thickBot="1">
+    <row r="320" spans="1:3" ht="15" thickBot="1">
       <c r="A320" s="1" t="s">
         <v>1353</v>
       </c>
@@ -21654,7 +21658,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="321" spans="1:3" ht="28.2" thickBot="1">
+    <row r="321" spans="1:3" ht="15" thickBot="1">
       <c r="A321" s="2" t="s">
         <v>1353</v>
       </c>
@@ -21665,7 +21669,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="322" spans="1:3" ht="28.2" thickBot="1">
+    <row r="322" spans="1:3" ht="15" thickBot="1">
       <c r="A322" s="1" t="s">
         <v>1353</v>
       </c>
@@ -21676,7 +21680,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="323" spans="1:3" ht="28.2" thickBot="1">
+    <row r="323" spans="1:3" ht="15" thickBot="1">
       <c r="A323" s="2" t="s">
         <v>1353</v>
       </c>
@@ -21687,7 +21691,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="324" spans="1:3" ht="28.2" thickBot="1">
+    <row r="324" spans="1:3" ht="15" thickBot="1">
       <c r="A324" s="1" t="s">
         <v>1353</v>
       </c>
@@ -21698,7 +21702,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="325" spans="1:3" ht="28.2" thickBot="1">
+    <row r="325" spans="1:3" ht="15" thickBot="1">
       <c r="A325" s="2" t="s">
         <v>1353</v>
       </c>
@@ -21709,7 +21713,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="326" spans="1:3" ht="28.2" thickBot="1">
+    <row r="326" spans="1:3" ht="15" thickBot="1">
       <c r="A326" s="1" t="s">
         <v>1353</v>
       </c>
@@ -21720,7 +21724,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="327" spans="1:3" ht="28.2" thickBot="1">
+    <row r="327" spans="1:3" ht="15" thickBot="1">
       <c r="A327" s="2" t="s">
         <v>1353</v>
       </c>
@@ -21731,7 +21735,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="328" spans="1:3" ht="28.2" thickBot="1">
+    <row r="328" spans="1:3" ht="15" thickBot="1">
       <c r="A328" s="1" t="s">
         <v>1353</v>
       </c>
@@ -21742,7 +21746,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="329" spans="1:3" ht="28.2" thickBot="1">
+    <row r="329" spans="1:3" ht="15" thickBot="1">
       <c r="A329" s="2" t="s">
         <v>1353</v>
       </c>
@@ -21753,7 +21757,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="330" spans="1:3" ht="28.2" thickBot="1">
+    <row r="330" spans="1:3" ht="15" thickBot="1">
       <c r="A330" s="1" t="s">
         <v>1353</v>
       </c>
@@ -21764,7 +21768,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="331" spans="1:3" ht="28.2" thickBot="1">
+    <row r="331" spans="1:3" ht="15" thickBot="1">
       <c r="A331" s="2" t="s">
         <v>1353</v>
       </c>
@@ -21775,7 +21779,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="332" spans="1:3" ht="28.2" thickBot="1">
+    <row r="332" spans="1:3" ht="15" thickBot="1">
       <c r="A332" s="1" t="s">
         <v>1353</v>
       </c>
@@ -21786,7 +21790,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="333" spans="1:3" ht="28.2" thickBot="1">
+    <row r="333" spans="1:3" ht="15" thickBot="1">
       <c r="A333" s="2" t="s">
         <v>1353</v>
       </c>
@@ -21797,7 +21801,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="334" spans="1:3" ht="28.2" thickBot="1">
+    <row r="334" spans="1:3" ht="15" thickBot="1">
       <c r="A334" s="1" t="s">
         <v>1353</v>
       </c>
@@ -21808,7 +21812,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="335" spans="1:3" ht="28.2" thickBot="1">
+    <row r="335" spans="1:3" ht="15" thickBot="1">
       <c r="A335" s="2" t="s">
         <v>1353</v>
       </c>
@@ -21819,7 +21823,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="336" spans="1:3" ht="28.2" thickBot="1">
+    <row r="336" spans="1:3" ht="15" thickBot="1">
       <c r="A336" s="1" t="s">
         <v>1353</v>
       </c>
@@ -21830,7 +21834,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="337" spans="1:3" ht="28.2" thickBot="1">
+    <row r="337" spans="1:3" ht="15" thickBot="1">
       <c r="A337" s="2" t="s">
         <v>1353</v>
       </c>
@@ -21841,7 +21845,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="338" spans="1:3" ht="28.2" thickBot="1">
+    <row r="338" spans="1:3" ht="15" thickBot="1">
       <c r="A338" s="1" t="s">
         <v>1353</v>
       </c>
@@ -21852,7 +21856,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="339" spans="1:3" ht="28.2" thickBot="1">
+    <row r="339" spans="1:3" ht="15" thickBot="1">
       <c r="A339" s="2" t="s">
         <v>1353</v>
       </c>
@@ -21863,7 +21867,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="340" spans="1:3" ht="28.2" thickBot="1">
+    <row r="340" spans="1:3" ht="15" thickBot="1">
       <c r="A340" s="1" t="s">
         <v>1353</v>
       </c>
@@ -21874,7 +21878,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="341" spans="1:3" ht="55.8" thickBot="1">
+    <row r="341" spans="1:3" ht="28.2" thickBot="1">
       <c r="A341" s="2" t="s">
         <v>1353</v>
       </c>
@@ -21885,7 +21889,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="342" spans="1:3" ht="28.2" thickBot="1">
+    <row r="342" spans="1:3" ht="15" thickBot="1">
       <c r="A342" s="1" t="s">
         <v>1353</v>
       </c>
@@ -21896,7 +21900,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="343" spans="1:3" ht="28.2" thickBot="1">
+    <row r="343" spans="1:3" ht="15" thickBot="1">
       <c r="A343" s="2" t="s">
         <v>1353</v>
       </c>
@@ -21907,7 +21911,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="344" spans="1:3" ht="28.2" thickBot="1">
+    <row r="344" spans="1:3" ht="15" thickBot="1">
       <c r="A344" s="1" t="s">
         <v>1353</v>
       </c>
@@ -21918,7 +21922,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="345" spans="1:3" ht="28.2" thickBot="1">
+    <row r="345" spans="1:3" ht="15" thickBot="1">
       <c r="A345" s="2" t="s">
         <v>1353</v>
       </c>
@@ -21929,7 +21933,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="346" spans="1:3" ht="28.2" thickBot="1">
+    <row r="346" spans="1:3" ht="15" thickBot="1">
       <c r="A346" s="1" t="s">
         <v>1353</v>
       </c>
@@ -21940,7 +21944,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="347" spans="1:3" ht="28.2" thickBot="1">
+    <row r="347" spans="1:3" ht="15" thickBot="1">
       <c r="A347" s="2" t="s">
         <v>1353</v>
       </c>
@@ -21951,7 +21955,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="348" spans="1:3" ht="28.2" thickBot="1">
+    <row r="348" spans="1:3" ht="15" thickBot="1">
       <c r="A348" s="1" t="s">
         <v>1353</v>
       </c>
@@ -21962,7 +21966,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="349" spans="1:3" ht="55.8" thickBot="1">
+    <row r="349" spans="1:3" ht="28.2" thickBot="1">
       <c r="A349" s="2" t="s">
         <v>1353</v>
       </c>
@@ -21973,7 +21977,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="350" spans="1:3" ht="28.2" thickBot="1">
+    <row r="350" spans="1:3" ht="15" thickBot="1">
       <c r="A350" s="1" t="s">
         <v>1353</v>
       </c>
@@ -21984,7 +21988,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="351" spans="1:3" ht="28.2" thickBot="1">
+    <row r="351" spans="1:3" ht="15" thickBot="1">
       <c r="A351" s="2" t="s">
         <v>1353</v>
       </c>
@@ -21995,7 +21999,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="352" spans="1:3" ht="28.2" thickBot="1">
+    <row r="352" spans="1:3" ht="15" thickBot="1">
       <c r="A352" s="1" t="s">
         <v>1353</v>
       </c>
@@ -22006,7 +22010,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="353" spans="1:3" ht="28.2" thickBot="1">
+    <row r="353" spans="1:3" ht="15" thickBot="1">
       <c r="A353" s="2" t="s">
         <v>1353</v>
       </c>
@@ -22017,7 +22021,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="354" spans="1:3" ht="28.2" thickBot="1">
+    <row r="354" spans="1:3" ht="15" thickBot="1">
       <c r="A354" s="1" t="s">
         <v>1353</v>
       </c>
@@ -22028,7 +22032,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="355" spans="1:3" ht="28.2" thickBot="1">
+    <row r="355" spans="1:3" ht="15" thickBot="1">
       <c r="A355" s="2" t="s">
         <v>1353</v>
       </c>
@@ -22039,7 +22043,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="356" spans="1:3" ht="28.2" thickBot="1">
+    <row r="356" spans="1:3" ht="15" thickBot="1">
       <c r="A356" s="1" t="s">
         <v>1353</v>
       </c>
@@ -22050,7 +22054,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="357" spans="1:3" ht="42" thickBot="1">
+    <row r="357" spans="1:3" ht="15" thickBot="1">
       <c r="A357" s="2" t="s">
         <v>1353</v>
       </c>
@@ -22061,7 +22065,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="358" spans="1:3" ht="28.2" thickBot="1">
+    <row r="358" spans="1:3" ht="15" thickBot="1">
       <c r="A358" s="1" t="s">
         <v>1353</v>
       </c>
@@ -22072,7 +22076,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="359" spans="1:3" ht="42" thickBot="1">
+    <row r="359" spans="1:3" ht="15" thickBot="1">
       <c r="A359" s="2" t="s">
         <v>1353</v>
       </c>
@@ -22083,7 +22087,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="360" spans="1:3" ht="28.2" thickBot="1">
+    <row r="360" spans="1:3" ht="15" thickBot="1">
       <c r="A360" s="1" t="s">
         <v>1353</v>
       </c>
@@ -22094,7 +22098,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="361" spans="1:3" ht="28.2" thickBot="1">
+    <row r="361" spans="1:3" ht="15" thickBot="1">
       <c r="A361" s="2" t="s">
         <v>1353</v>
       </c>
@@ -22105,7 +22109,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="362" spans="1:3" ht="28.2" thickBot="1">
+    <row r="362" spans="1:3" ht="15" thickBot="1">
       <c r="A362" s="1" t="s">
         <v>1353</v>
       </c>
@@ -22116,7 +22120,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="363" spans="1:3" ht="55.8" thickBot="1">
+    <row r="363" spans="1:3" ht="28.2" thickBot="1">
       <c r="A363" s="2" t="s">
         <v>1353</v>
       </c>
@@ -22127,7 +22131,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="364" spans="1:3" ht="42" thickBot="1">
+    <row r="364" spans="1:3" ht="15" thickBot="1">
       <c r="A364" s="1" t="s">
         <v>1353</v>
       </c>
@@ -22138,7 +22142,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="365" spans="1:3" ht="28.2" thickBot="1">
+    <row r="365" spans="1:3" ht="15" thickBot="1">
       <c r="A365" s="2" t="s">
         <v>1353</v>
       </c>
@@ -22149,7 +22153,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="366" spans="1:3" ht="28.2" thickBot="1">
+    <row r="366" spans="1:3" ht="15" thickBot="1">
       <c r="A366" s="1" t="s">
         <v>1353</v>
       </c>
@@ -22160,7 +22164,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="367" spans="1:3" ht="28.2" thickBot="1">
+    <row r="367" spans="1:3" ht="15" thickBot="1">
       <c r="A367" s="2" t="s">
         <v>1353</v>
       </c>
@@ -22171,7 +22175,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="368" spans="1:3" ht="28.2" thickBot="1">
+    <row r="368" spans="1:3" ht="15" thickBot="1">
       <c r="A368" s="1" t="s">
         <v>1353</v>
       </c>
@@ -22182,7 +22186,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="369" spans="1:3" ht="28.2" thickBot="1">
+    <row r="369" spans="1:3" ht="15" thickBot="1">
       <c r="A369" s="2" t="s">
         <v>1353</v>
       </c>
@@ -22193,7 +22197,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="370" spans="1:3" ht="28.2" thickBot="1">
+    <row r="370" spans="1:3" ht="15" thickBot="1">
       <c r="A370" s="1" t="s">
         <v>1353</v>
       </c>
@@ -22204,7 +22208,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="371" spans="1:3" ht="42" thickBot="1">
+    <row r="371" spans="1:3" ht="28.2" thickBot="1">
       <c r="A371" s="2" t="s">
         <v>1353</v>
       </c>
@@ -22215,7 +22219,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="372" spans="1:3" ht="124.8" thickBot="1">
+    <row r="372" spans="1:3" ht="42" thickBot="1">
       <c r="A372" s="1" t="s">
         <v>1353</v>
       </c>
@@ -22226,7 +22230,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="373" spans="1:3" ht="28.2" thickBot="1">
+    <row r="373" spans="1:3" ht="15" thickBot="1">
       <c r="A373" s="2" t="s">
         <v>1353</v>
       </c>
@@ -22237,7 +22241,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="374" spans="1:3" ht="69.599999999999994" thickBot="1">
+    <row r="374" spans="1:3" ht="42" thickBot="1">
       <c r="A374" s="1" t="s">
         <v>1353</v>
       </c>
@@ -22248,7 +22252,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="375" spans="1:3" ht="28.2" thickBot="1">
+    <row r="375" spans="1:3" ht="15" thickBot="1">
       <c r="A375" s="2" t="s">
         <v>1353</v>
       </c>
@@ -22259,7 +22263,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="376" spans="1:3" ht="28.2" thickBot="1">
+    <row r="376" spans="1:3" ht="15" thickBot="1">
       <c r="A376" s="1" t="s">
         <v>1353</v>
       </c>
@@ -22270,7 +22274,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="377" spans="1:3" ht="28.2" thickBot="1">
+    <row r="377" spans="1:3" ht="15" thickBot="1">
       <c r="A377" s="2" t="s">
         <v>1353</v>
       </c>
@@ -22281,7 +22285,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="378" spans="1:3" ht="42" thickBot="1">
+    <row r="378" spans="1:3" ht="15" thickBot="1">
       <c r="A378" s="1" t="s">
         <v>1353</v>
       </c>
@@ -22292,7 +22296,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="379" spans="1:3" ht="55.8" thickBot="1">
+    <row r="379" spans="1:3" ht="28.2" thickBot="1">
       <c r="A379" s="2" t="s">
         <v>1353</v>
       </c>
@@ -22303,7 +22307,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="380" spans="1:3" ht="42" thickBot="1">
+    <row r="380" spans="1:3" ht="15" thickBot="1">
       <c r="A380" s="1" t="s">
         <v>1353</v>
       </c>
@@ -22314,7 +22318,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="381" spans="1:3" ht="28.2" thickBot="1">
+    <row r="381" spans="1:3" ht="15" thickBot="1">
       <c r="A381" s="2" t="s">
         <v>1353</v>
       </c>
@@ -22325,7 +22329,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="382" spans="1:3" ht="28.2" thickBot="1">
+    <row r="382" spans="1:3" ht="15" thickBot="1">
       <c r="A382" s="1" t="s">
         <v>1353</v>
       </c>
@@ -22336,7 +22340,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="383" spans="1:3" ht="28.2" thickBot="1">
+    <row r="383" spans="1:3" ht="15" thickBot="1">
       <c r="A383" s="2" t="s">
         <v>1353</v>
       </c>
@@ -22347,7 +22351,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="384" spans="1:3" ht="42" thickBot="1">
+    <row r="384" spans="1:3" ht="15" thickBot="1">
       <c r="A384" s="1" t="s">
         <v>1353</v>
       </c>
@@ -22358,7 +22362,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="385" spans="1:3" ht="55.8" thickBot="1">
+    <row r="385" spans="1:3" ht="15" thickBot="1">
       <c r="A385" s="2" t="s">
         <v>1353</v>
       </c>
@@ -22369,7 +22373,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="386" spans="1:3" ht="55.8" thickBot="1">
+    <row r="386" spans="1:3" ht="15" thickBot="1">
       <c r="A386" s="1" t="s">
         <v>1353</v>
       </c>
@@ -22380,7 +22384,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="387" spans="1:3" ht="97.2" thickBot="1">
+    <row r="387" spans="1:3" ht="42" thickBot="1">
       <c r="A387" s="2" t="s">
         <v>1353</v>
       </c>
@@ -22391,7 +22395,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="388" spans="1:3" ht="55.8" thickBot="1">
+    <row r="388" spans="1:3" ht="28.2" thickBot="1">
       <c r="A388" s="1" t="s">
         <v>1353</v>
       </c>
@@ -22402,7 +22406,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="389" spans="1:3" ht="55.8" thickBot="1">
+    <row r="389" spans="1:3" ht="28.2" thickBot="1">
       <c r="A389" s="2" t="s">
         <v>1353</v>
       </c>
@@ -22413,7 +22417,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="390" spans="1:3" ht="42" thickBot="1">
+    <row r="390" spans="1:3" ht="15" thickBot="1">
       <c r="A390" s="1" t="s">
         <v>1353</v>
       </c>
@@ -22424,7 +22428,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="391" spans="1:3" ht="28.2" thickBot="1">
+    <row r="391" spans="1:3" ht="15" thickBot="1">
       <c r="A391" s="2" t="s">
         <v>1353</v>
       </c>
@@ -22435,7 +22439,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="392" spans="1:3" ht="28.2" thickBot="1">
+    <row r="392" spans="1:3" ht="15" thickBot="1">
       <c r="A392" s="1" t="s">
         <v>1353</v>
       </c>
@@ -22446,7 +22450,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="393" spans="1:3" ht="28.2" thickBot="1">
+    <row r="393" spans="1:3" ht="15" thickBot="1">
       <c r="A393" s="2" t="s">
         <v>1353</v>
       </c>
@@ -22457,7 +22461,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="394" spans="1:3" ht="42" thickBot="1">
+    <row r="394" spans="1:3" ht="15" thickBot="1">
       <c r="A394" s="1" t="s">
         <v>1353</v>
       </c>
@@ -22468,7 +22472,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="395" spans="1:3" ht="55.8" thickBot="1">
+    <row r="395" spans="1:3" ht="15" thickBot="1">
       <c r="A395" s="2" t="s">
         <v>1353</v>
       </c>
@@ -22479,7 +22483,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="396" spans="1:3" ht="28.2" thickBot="1">
+    <row r="396" spans="1:3" ht="15" thickBot="1">
       <c r="A396" s="1" t="s">
         <v>1353</v>
       </c>
@@ -22490,7 +22494,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="397" spans="1:3" ht="28.2" thickBot="1">
+    <row r="397" spans="1:3" ht="15" thickBot="1">
       <c r="A397" s="2" t="s">
         <v>1353</v>
       </c>
@@ -22501,7 +22505,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="398" spans="1:3" ht="42" thickBot="1">
+    <row r="398" spans="1:3" ht="28.2" thickBot="1">
       <c r="A398" s="1" t="s">
         <v>1353</v>
       </c>
@@ -22512,7 +22516,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="399" spans="1:3" ht="42" thickBot="1">
+    <row r="399" spans="1:3" ht="15" thickBot="1">
       <c r="A399" s="2" t="s">
         <v>1353</v>
       </c>
@@ -22523,7 +22527,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="400" spans="1:3" ht="28.2" thickBot="1">
+    <row r="400" spans="1:3" ht="15" thickBot="1">
       <c r="A400" s="1" t="s">
         <v>1353</v>
       </c>
@@ -22534,7 +22538,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="401" spans="1:3" ht="55.8" thickBot="1">
+    <row r="401" spans="1:3" ht="28.2" thickBot="1">
       <c r="A401" s="2" t="s">
         <v>1353</v>
       </c>
@@ -22545,7 +22549,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="402" spans="1:3" ht="28.2" thickBot="1">
+    <row r="402" spans="1:3" ht="15" thickBot="1">
       <c r="A402" s="1" t="s">
         <v>1353</v>
       </c>
@@ -22556,7 +22560,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="403" spans="1:3" ht="28.2" thickBot="1">
+    <row r="403" spans="1:3" ht="15" thickBot="1">
       <c r="A403" s="2" t="s">
         <v>1353</v>
       </c>
@@ -22567,7 +22571,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="404" spans="1:3" ht="28.2" thickBot="1">
+    <row r="404" spans="1:3" ht="15" thickBot="1">
       <c r="A404" s="1" t="s">
         <v>1353</v>
       </c>
@@ -22578,7 +22582,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="405" spans="1:3" ht="28.2" thickBot="1">
+    <row r="405" spans="1:3" ht="15" thickBot="1">
       <c r="A405" s="2" t="s">
         <v>1353</v>
       </c>
@@ -22589,7 +22593,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="406" spans="1:3" ht="28.2" thickBot="1">
+    <row r="406" spans="1:3" ht="15" thickBot="1">
       <c r="A406" s="1" t="s">
         <v>1353</v>
       </c>
@@ -22600,7 +22604,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="407" spans="1:3" ht="28.2" thickBot="1">
+    <row r="407" spans="1:3" ht="15" thickBot="1">
       <c r="A407" s="2" t="s">
         <v>1353</v>
       </c>
@@ -22611,7 +22615,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="408" spans="1:3" ht="28.2" thickBot="1">
+    <row r="408" spans="1:3" ht="15" thickBot="1">
       <c r="A408" s="1" t="s">
         <v>1353</v>
       </c>
@@ -22622,7 +22626,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="409" spans="1:3" ht="28.2" thickBot="1">
+    <row r="409" spans="1:3" ht="15" thickBot="1">
       <c r="A409" s="2" t="s">
         <v>1353</v>
       </c>
@@ -22633,7 +22637,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="410" spans="1:3" ht="28.2" thickBot="1">
+    <row r="410" spans="1:3" ht="15" thickBot="1">
       <c r="A410" s="1" t="s">
         <v>1353</v>
       </c>
@@ -22644,7 +22648,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="411" spans="1:3" ht="28.2" thickBot="1">
+    <row r="411" spans="1:3" ht="15" thickBot="1">
       <c r="A411" s="2" t="s">
         <v>1353</v>
       </c>
@@ -22655,7 +22659,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="412" spans="1:3" ht="28.2" thickBot="1">
+    <row r="412" spans="1:3" ht="15" thickBot="1">
       <c r="A412" s="1" t="s">
         <v>1353</v>
       </c>
@@ -22666,7 +22670,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="413" spans="1:3" ht="42" thickBot="1">
+    <row r="413" spans="1:3" ht="28.2" thickBot="1">
       <c r="A413" s="2" t="s">
         <v>1353</v>
       </c>
@@ -22677,7 +22681,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="414" spans="1:3" ht="28.2" thickBot="1">
+    <row r="414" spans="1:3" ht="15" thickBot="1">
       <c r="A414" s="1" t="s">
         <v>1353</v>
       </c>
@@ -22688,7 +22692,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="415" spans="1:3" ht="42" thickBot="1">
+    <row r="415" spans="1:3" ht="28.2" thickBot="1">
       <c r="A415" s="2" t="s">
         <v>1353</v>
       </c>
@@ -22699,7 +22703,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="416" spans="1:3" ht="28.2" thickBot="1">
+    <row r="416" spans="1:3" ht="15" thickBot="1">
       <c r="A416" s="1" t="s">
         <v>1353</v>
       </c>
@@ -22710,7 +22714,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="417" spans="1:3" ht="28.2" thickBot="1">
+    <row r="417" spans="1:3" ht="15" thickBot="1">
       <c r="A417" s="2" t="s">
         <v>1353</v>
       </c>
@@ -22721,7 +22725,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="418" spans="1:3" ht="28.2" thickBot="1">
+    <row r="418" spans="1:3" ht="15" thickBot="1">
       <c r="A418" s="1" t="s">
         <v>1353</v>
       </c>
@@ -22732,7 +22736,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="419" spans="1:3" ht="28.2" thickBot="1">
+    <row r="419" spans="1:3" ht="15" thickBot="1">
       <c r="A419" s="2" t="s">
         <v>1353</v>
       </c>
@@ -22743,7 +22747,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="420" spans="1:3" ht="28.2" thickBot="1">
+    <row r="420" spans="1:3" ht="15" thickBot="1">
       <c r="A420" s="1" t="s">
         <v>1353</v>
       </c>
@@ -22754,7 +22758,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="421" spans="1:3" ht="28.2" thickBot="1">
+    <row r="421" spans="1:3" ht="15" thickBot="1">
       <c r="A421" s="2" t="s">
         <v>1353</v>
       </c>
@@ -22765,7 +22769,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="422" spans="1:3" ht="55.8" thickBot="1">
+    <row r="422" spans="1:3" ht="28.2" thickBot="1">
       <c r="A422" s="1" t="s">
         <v>1353</v>
       </c>
@@ -22776,7 +22780,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="423" spans="1:3" ht="28.2" thickBot="1">
+    <row r="423" spans="1:3" ht="15" thickBot="1">
       <c r="A423" s="2" t="s">
         <v>1353</v>
       </c>
@@ -22787,7 +22791,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="424" spans="1:3" ht="28.2" thickBot="1">
+    <row r="424" spans="1:3" ht="15" thickBot="1">
       <c r="A424" s="1" t="s">
         <v>1353</v>
       </c>
@@ -22798,7 +22802,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="425" spans="1:3" ht="28.2" thickBot="1">
+    <row r="425" spans="1:3" ht="15" thickBot="1">
       <c r="A425" s="2" t="s">
         <v>1353</v>
       </c>
@@ -22809,7 +22813,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="426" spans="1:3" ht="28.2" thickBot="1">
+    <row r="426" spans="1:3" ht="15" thickBot="1">
       <c r="A426" s="1" t="s">
         <v>1353</v>
       </c>
@@ -22820,7 +22824,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="427" spans="1:3" ht="28.2" thickBot="1">
+    <row r="427" spans="1:3" ht="15" thickBot="1">
       <c r="A427" s="2" t="s">
         <v>1353</v>
       </c>
@@ -22831,7 +22835,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="428" spans="1:3" ht="28.2" thickBot="1">
+    <row r="428" spans="1:3" ht="15" thickBot="1">
       <c r="A428" s="1" t="s">
         <v>1353</v>
       </c>
@@ -22842,7 +22846,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="429" spans="1:3" ht="28.2" thickBot="1">
+    <row r="429" spans="1:3" ht="15" thickBot="1">
       <c r="A429" s="2" t="s">
         <v>1353</v>
       </c>
@@ -22853,7 +22857,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="430" spans="1:3" ht="28.2" thickBot="1">
+    <row r="430" spans="1:3" ht="15" thickBot="1">
       <c r="A430" s="1" t="s">
         <v>1353</v>
       </c>
@@ -22864,7 +22868,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="431" spans="1:3" ht="28.2" thickBot="1">
+    <row r="431" spans="1:3" ht="15" thickBot="1">
       <c r="A431" s="2" t="s">
         <v>1353</v>
       </c>
@@ -22875,7 +22879,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="432" spans="1:3" ht="28.2" thickBot="1">
+    <row r="432" spans="1:3" ht="15" thickBot="1">
       <c r="A432" s="1" t="s">
         <v>1353</v>
       </c>
@@ -22886,7 +22890,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="433" spans="1:3" ht="28.2" thickBot="1">
+    <row r="433" spans="1:3" ht="15" thickBot="1">
       <c r="A433" s="2" t="s">
         <v>1353</v>
       </c>
@@ -22897,7 +22901,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="434" spans="1:3" ht="28.2" thickBot="1">
+    <row r="434" spans="1:3" ht="15" thickBot="1">
       <c r="A434" s="1" t="s">
         <v>1353</v>
       </c>
@@ -22908,7 +22912,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="435" spans="1:3" ht="28.2" thickBot="1">
+    <row r="435" spans="1:3" ht="15" thickBot="1">
       <c r="A435" s="2" t="s">
         <v>1353</v>
       </c>
@@ -22919,7 +22923,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="436" spans="1:3" ht="28.2" thickBot="1">
+    <row r="436" spans="1:3" ht="15" thickBot="1">
       <c r="A436" s="1" t="s">
         <v>1353</v>
       </c>
@@ -22930,7 +22934,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="437" spans="1:3" ht="28.2" thickBot="1">
+    <row r="437" spans="1:3" ht="15" thickBot="1">
       <c r="A437" s="2" t="s">
         <v>1353</v>
       </c>
@@ -22941,7 +22945,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="438" spans="1:3" ht="28.2" thickBot="1">
+    <row r="438" spans="1:3" ht="15" thickBot="1">
       <c r="A438" s="1" t="s">
         <v>1353</v>
       </c>
@@ -22952,7 +22956,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="439" spans="1:3" ht="42" thickBot="1">
+    <row r="439" spans="1:3" ht="28.2" thickBot="1">
       <c r="A439" s="2" t="s">
         <v>1353</v>
       </c>
@@ -22963,7 +22967,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="440" spans="1:3" ht="28.2" thickBot="1">
+    <row r="440" spans="1:3" ht="15" thickBot="1">
       <c r="A440" s="1" t="s">
         <v>1353</v>
       </c>
@@ -22974,7 +22978,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="441" spans="1:3" ht="28.2" thickBot="1">
+    <row r="441" spans="1:3" ht="15" thickBot="1">
       <c r="A441" s="2" t="s">
         <v>1353</v>
       </c>
@@ -22985,7 +22989,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="442" spans="1:3" ht="28.2" thickBot="1">
+    <row r="442" spans="1:3" ht="15" thickBot="1">
       <c r="A442" s="1" t="s">
         <v>1353</v>
       </c>
@@ -22996,7 +23000,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="443" spans="1:3" ht="28.2" thickBot="1">
+    <row r="443" spans="1:3" ht="15" thickBot="1">
       <c r="A443" s="2" t="s">
         <v>1353</v>
       </c>
@@ -23007,7 +23011,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="444" spans="1:3" ht="28.2" thickBot="1">
+    <row r="444" spans="1:3" ht="15" thickBot="1">
       <c r="A444" s="1" t="s">
         <v>1353</v>
       </c>
@@ -23018,7 +23022,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="445" spans="1:3" ht="42" thickBot="1">
+    <row r="445" spans="1:3" ht="28.2" thickBot="1">
       <c r="A445" s="2" t="s">
         <v>1353</v>
       </c>
@@ -23029,7 +23033,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="446" spans="1:3" ht="28.2" thickBot="1">
+    <row r="446" spans="1:3" ht="15" thickBot="1">
       <c r="A446" s="1" t="s">
         <v>1353</v>
       </c>
@@ -23040,7 +23044,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="447" spans="1:3" ht="28.2" thickBot="1">
+    <row r="447" spans="1:3" ht="15" thickBot="1">
       <c r="A447" s="2" t="s">
         <v>1353</v>
       </c>
@@ -23051,7 +23055,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="448" spans="1:3" ht="28.2" thickBot="1">
+    <row r="448" spans="1:3" ht="15" thickBot="1">
       <c r="A448" s="1" t="s">
         <v>1353</v>
       </c>
@@ -23062,7 +23066,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="449" spans="1:3" ht="28.2" thickBot="1">
+    <row r="449" spans="1:3" ht="15" thickBot="1">
       <c r="A449" s="2" t="s">
         <v>1353</v>
       </c>
@@ -23073,7 +23077,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="450" spans="1:3" ht="28.2" thickBot="1">
+    <row r="450" spans="1:3" ht="15" thickBot="1">
       <c r="A450" s="1" t="s">
         <v>1353</v>
       </c>
@@ -23084,7 +23088,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="451" spans="1:3" ht="28.2" thickBot="1">
+    <row r="451" spans="1:3" ht="15" thickBot="1">
       <c r="A451" s="2" t="s">
         <v>1353</v>
       </c>
@@ -23095,7 +23099,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="452" spans="1:3" ht="28.2" thickBot="1">
+    <row r="452" spans="1:3" ht="15" thickBot="1">
       <c r="A452" s="1" t="s">
         <v>1353</v>
       </c>
@@ -23106,7 +23110,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="453" spans="1:3" ht="42" thickBot="1">
+    <row r="453" spans="1:3" ht="15" thickBot="1">
       <c r="A453" s="2" t="s">
         <v>1353</v>
       </c>
@@ -23117,7 +23121,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="454" spans="1:3" ht="42" thickBot="1">
+    <row r="454" spans="1:3" ht="15" thickBot="1">
       <c r="A454" s="1" t="s">
         <v>1353</v>
       </c>
@@ -23128,7 +23132,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="455" spans="1:3" ht="42" thickBot="1">
+    <row r="455" spans="1:3" ht="28.2" thickBot="1">
       <c r="A455" s="2" t="s">
         <v>1353</v>
       </c>
@@ -23139,7 +23143,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="456" spans="1:3" ht="42" thickBot="1">
+    <row r="456" spans="1:3" ht="15" thickBot="1">
       <c r="A456" s="1" t="s">
         <v>1353</v>
       </c>
@@ -23150,7 +23154,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="457" spans="1:3" ht="42" thickBot="1">
+    <row r="457" spans="1:3" ht="15" thickBot="1">
       <c r="A457" s="2" t="s">
         <v>1353</v>
       </c>
@@ -23161,7 +23165,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="458" spans="1:3" ht="28.2" thickBot="1">
+    <row r="458" spans="1:3" ht="15" thickBot="1">
       <c r="A458" s="1" t="s">
         <v>1353</v>
       </c>
@@ -23172,7 +23176,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="459" spans="1:3" ht="28.2" thickBot="1">
+    <row r="459" spans="1:3" ht="15" thickBot="1">
       <c r="A459" s="2" t="s">
         <v>1353</v>
       </c>
@@ -23183,7 +23187,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="460" spans="1:3" ht="28.2" thickBot="1">
+    <row r="460" spans="1:3" ht="15" thickBot="1">
       <c r="A460" s="1" t="s">
         <v>1353</v>
       </c>
@@ -23194,7 +23198,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="461" spans="1:3" ht="28.2" thickBot="1">
+    <row r="461" spans="1:3" ht="15" thickBot="1">
       <c r="A461" s="2" t="s">
         <v>1353</v>
       </c>
@@ -23205,7 +23209,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="462" spans="1:3" ht="42" thickBot="1">
+    <row r="462" spans="1:3" ht="28.2" thickBot="1">
       <c r="A462" s="1" t="s">
         <v>1353</v>
       </c>
@@ -23216,7 +23220,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="463" spans="1:3" ht="28.2" thickBot="1">
+    <row r="463" spans="1:3" ht="15" thickBot="1">
       <c r="A463" s="2" t="s">
         <v>1353</v>
       </c>
@@ -23227,7 +23231,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="464" spans="1:3" ht="28.2" thickBot="1">
+    <row r="464" spans="1:3" ht="15" thickBot="1">
       <c r="A464" s="1" t="s">
         <v>1353</v>
       </c>
@@ -23238,7 +23242,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="465" spans="1:3" ht="28.2" thickBot="1">
+    <row r="465" spans="1:3" ht="15" thickBot="1">
       <c r="A465" s="2" t="s">
         <v>1353</v>
       </c>
@@ -23249,7 +23253,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="466" spans="1:3" ht="55.8" thickBot="1">
+    <row r="466" spans="1:3" ht="28.2" thickBot="1">
       <c r="A466" s="1" t="s">
         <v>1353</v>
       </c>
@@ -23260,7 +23264,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="467" spans="1:3" ht="28.2" thickBot="1">
+    <row r="467" spans="1:3" ht="15" thickBot="1">
       <c r="A467" s="2" t="s">
         <v>1353</v>
       </c>
@@ -23271,7 +23275,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="468" spans="1:3" ht="28.2" thickBot="1">
+    <row r="468" spans="1:3" ht="15" thickBot="1">
       <c r="A468" s="1" t="s">
         <v>1353</v>
       </c>
@@ -23282,7 +23286,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="469" spans="1:3" ht="28.2" thickBot="1">
+    <row r="469" spans="1:3" ht="15" thickBot="1">
       <c r="A469" s="2" t="s">
         <v>1353</v>
       </c>
@@ -23293,7 +23297,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="470" spans="1:3" ht="28.2" thickBot="1">
+    <row r="470" spans="1:3" ht="15" thickBot="1">
       <c r="A470" s="1" t="s">
         <v>1353</v>
       </c>
@@ -23304,7 +23308,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="471" spans="1:3" ht="28.2" thickBot="1">
+    <row r="471" spans="1:3" ht="15" thickBot="1">
       <c r="A471" s="2" t="s">
         <v>1353</v>
       </c>
@@ -23315,7 +23319,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="472" spans="1:3" ht="28.2" thickBot="1">
+    <row r="472" spans="1:3" ht="15" thickBot="1">
       <c r="A472" s="1" t="s">
         <v>1353</v>
       </c>
@@ -23326,7 +23330,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="473" spans="1:3" ht="28.2" thickBot="1">
+    <row r="473" spans="1:3" ht="15" thickBot="1">
       <c r="A473" s="2" t="s">
         <v>1353</v>
       </c>
@@ -23337,7 +23341,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="474" spans="1:3" ht="28.2" thickBot="1">
+    <row r="474" spans="1:3" ht="15" thickBot="1">
       <c r="A474" s="1" t="s">
         <v>1353</v>
       </c>
@@ -23348,7 +23352,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="475" spans="1:3" ht="28.2" thickBot="1">
+    <row r="475" spans="1:3" ht="15" thickBot="1">
       <c r="A475" s="2" t="s">
         <v>1353</v>
       </c>
@@ -23359,7 +23363,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="476" spans="1:3" ht="42" thickBot="1">
+    <row r="476" spans="1:3" ht="15" thickBot="1">
       <c r="A476" s="1" t="s">
         <v>1353</v>
       </c>
@@ -23370,7 +23374,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="477" spans="1:3" ht="28.2" thickBot="1">
+    <row r="477" spans="1:3" ht="15" thickBot="1">
       <c r="A477" s="2" t="s">
         <v>1353</v>
       </c>
@@ -23381,7 +23385,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="478" spans="1:3" ht="42" thickBot="1">
+    <row r="478" spans="1:3" ht="28.2" thickBot="1">
       <c r="A478" s="1" t="s">
         <v>1353</v>
       </c>
@@ -23392,7 +23396,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="479" spans="1:3" ht="28.2" thickBot="1">
+    <row r="479" spans="1:3" ht="15" thickBot="1">
       <c r="A479" s="2" t="s">
         <v>1353</v>
       </c>
@@ -23403,7 +23407,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="480" spans="1:3" ht="28.2" thickBot="1">
+    <row r="480" spans="1:3" ht="15" thickBot="1">
       <c r="A480" s="1" t="s">
         <v>1353</v>
       </c>
@@ -23414,7 +23418,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="481" spans="1:3" ht="42" thickBot="1">
+    <row r="481" spans="1:3" ht="15" thickBot="1">
       <c r="A481" s="2" t="s">
         <v>1353</v>
       </c>
@@ -23425,7 +23429,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="482" spans="1:3" ht="28.2" thickBot="1">
+    <row r="482" spans="1:3" ht="15" thickBot="1">
       <c r="A482" s="1" t="s">
         <v>1353</v>
       </c>
@@ -23436,7 +23440,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="483" spans="1:3" ht="28.2" thickBot="1">
+    <row r="483" spans="1:3" ht="15" thickBot="1">
       <c r="A483" s="2" t="s">
         <v>1353</v>
       </c>
@@ -23447,7 +23451,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="484" spans="1:3" ht="28.2" thickBot="1">
+    <row r="484" spans="1:3" ht="15" thickBot="1">
       <c r="A484" s="1" t="s">
         <v>1353</v>
       </c>
@@ -23458,7 +23462,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="485" spans="1:3" ht="28.2" thickBot="1">
+    <row r="485" spans="1:3" ht="15" thickBot="1">
       <c r="A485" s="2" t="s">
         <v>1353</v>
       </c>
@@ -23469,7 +23473,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="486" spans="1:3" ht="28.2" thickBot="1">
+    <row r="486" spans="1:3" ht="15" thickBot="1">
       <c r="A486" s="1" t="s">
         <v>1353</v>
       </c>
@@ -23480,7 +23484,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="487" spans="1:3" ht="28.2" thickBot="1">
+    <row r="487" spans="1:3" ht="15" thickBot="1">
       <c r="A487" s="2" t="s">
         <v>1353</v>
       </c>
@@ -23491,7 +23495,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="488" spans="1:3" ht="28.2" thickBot="1">
+    <row r="488" spans="1:3" ht="15" thickBot="1">
       <c r="A488" s="1" t="s">
         <v>1353</v>
       </c>
@@ -23502,7 +23506,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="489" spans="1:3" ht="28.2" thickBot="1">
+    <row r="489" spans="1:3" ht="15" thickBot="1">
       <c r="A489" s="2" t="s">
         <v>1353</v>
       </c>
@@ -23513,7 +23517,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="490" spans="1:3" ht="28.2" thickBot="1">
+    <row r="490" spans="1:3" ht="15" thickBot="1">
       <c r="A490" s="1" t="s">
         <v>1353</v>
       </c>
@@ -23524,7 +23528,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="491" spans="1:3" ht="28.2" thickBot="1">
+    <row r="491" spans="1:3" ht="15" thickBot="1">
       <c r="A491" s="2" t="s">
         <v>1353</v>
       </c>
@@ -23535,7 +23539,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="492" spans="1:3" ht="28.2" thickBot="1">
+    <row r="492" spans="1:3" ht="15" thickBot="1">
       <c r="A492" s="1" t="s">
         <v>1353</v>
       </c>
@@ -23546,7 +23550,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="493" spans="1:3" ht="28.2" thickBot="1">
+    <row r="493" spans="1:3" ht="15" thickBot="1">
       <c r="A493" s="2" t="s">
         <v>1353</v>
       </c>
@@ -23557,7 +23561,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="494" spans="1:3" ht="28.2" thickBot="1">
+    <row r="494" spans="1:3" ht="15" thickBot="1">
       <c r="A494" s="1" t="s">
         <v>1353</v>
       </c>
@@ -23568,7 +23572,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="495" spans="1:3" ht="28.2" thickBot="1">
+    <row r="495" spans="1:3" ht="15" thickBot="1">
       <c r="A495" s="2" t="s">
         <v>1353</v>
       </c>
@@ -23579,7 +23583,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="496" spans="1:3" ht="28.2" thickBot="1">
+    <row r="496" spans="1:3" ht="15" thickBot="1">
       <c r="A496" s="1" t="s">
         <v>1353</v>
       </c>
@@ -23590,7 +23594,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="497" spans="1:3" ht="28.2" thickBot="1">
+    <row r="497" spans="1:3" ht="15" thickBot="1">
       <c r="A497" s="2" t="s">
         <v>1353</v>
       </c>
@@ -23601,7 +23605,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="498" spans="1:3" ht="28.2" thickBot="1">
+    <row r="498" spans="1:3" ht="15" thickBot="1">
       <c r="A498" s="1" t="s">
         <v>1353</v>
       </c>
@@ -23612,7 +23616,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="499" spans="1:3" ht="28.2" thickBot="1">
+    <row r="499" spans="1:3" ht="15" thickBot="1">
       <c r="A499" s="2" t="s">
         <v>1353</v>
       </c>
@@ -23623,7 +23627,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="500" spans="1:3" ht="42" thickBot="1">
+    <row r="500" spans="1:3" ht="15" thickBot="1">
       <c r="A500" s="1" t="s">
         <v>1353</v>
       </c>
@@ -23634,7 +23638,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="501" spans="1:3" ht="28.2" thickBot="1">
+    <row r="501" spans="1:3" ht="15" thickBot="1">
       <c r="A501" s="2" t="s">
         <v>1353</v>
       </c>
@@ -23645,7 +23649,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="502" spans="1:3" ht="28.2" thickBot="1">
+    <row r="502" spans="1:3" ht="15" thickBot="1">
       <c r="A502" s="1" t="s">
         <v>1353</v>
       </c>
@@ -23656,7 +23660,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="503" spans="1:3" ht="42" thickBot="1">
+    <row r="503" spans="1:3" ht="15" thickBot="1">
       <c r="A503" s="2" t="s">
         <v>1353</v>
       </c>
@@ -23667,7 +23671,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="504" spans="1:3" ht="42" thickBot="1">
+    <row r="504" spans="1:3" ht="15" thickBot="1">
       <c r="A504" s="1" t="s">
         <v>1353</v>
       </c>
@@ -23678,7 +23682,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="505" spans="1:3" ht="28.2" thickBot="1">
+    <row r="505" spans="1:3" ht="15" thickBot="1">
       <c r="A505" s="2" t="s">
         <v>1353</v>
       </c>
@@ -23689,7 +23693,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="506" spans="1:3" ht="28.2" thickBot="1">
+    <row r="506" spans="1:3" ht="15" thickBot="1">
       <c r="A506" s="1" t="s">
         <v>1353</v>
       </c>
@@ -23700,7 +23704,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="507" spans="1:3" ht="42" thickBot="1">
+    <row r="507" spans="1:3" ht="15" thickBot="1">
       <c r="A507" s="2" t="s">
         <v>1353</v>
       </c>
@@ -23711,7 +23715,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="508" spans="1:3" ht="28.2" thickBot="1">
+    <row r="508" spans="1:3" ht="15" thickBot="1">
       <c r="A508" s="1" t="s">
         <v>1353</v>
       </c>
@@ -23722,7 +23726,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="509" spans="1:3" ht="28.2" thickBot="1">
+    <row r="509" spans="1:3" ht="15" thickBot="1">
       <c r="A509" s="2" t="s">
         <v>1353</v>
       </c>
@@ -23733,7 +23737,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="510" spans="1:3" ht="28.2" thickBot="1">
+    <row r="510" spans="1:3" ht="15" thickBot="1">
       <c r="A510" s="1" t="s">
         <v>1353</v>
       </c>
@@ -23744,7 +23748,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="511" spans="1:3" ht="28.2" thickBot="1">
+    <row r="511" spans="1:3" ht="15" thickBot="1">
       <c r="A511" s="2" t="s">
         <v>1353</v>
       </c>
@@ -23755,7 +23759,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="512" spans="1:3" ht="28.2" thickBot="1">
+    <row r="512" spans="1:3" ht="15" thickBot="1">
       <c r="A512" s="1" t="s">
         <v>1353</v>
       </c>
@@ -23766,7 +23770,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="513" spans="1:3" ht="28.2" thickBot="1">
+    <row r="513" spans="1:3" ht="15" thickBot="1">
       <c r="A513" s="2" t="s">
         <v>1353</v>
       </c>
@@ -23777,7 +23781,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="514" spans="1:3" ht="28.2" thickBot="1">
+    <row r="514" spans="1:3" ht="15" thickBot="1">
       <c r="A514" s="1" t="s">
         <v>1353</v>
       </c>
@@ -23788,7 +23792,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="515" spans="1:3" ht="28.2" thickBot="1">
+    <row r="515" spans="1:3" ht="15" thickBot="1">
       <c r="A515" s="2" t="s">
         <v>1353</v>
       </c>
@@ -23799,7 +23803,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="516" spans="1:3" ht="42" thickBot="1">
+    <row r="516" spans="1:3" ht="28.2" thickBot="1">
       <c r="A516" s="1" t="s">
         <v>1353</v>
       </c>
@@ -23832,7 +23836,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="519" spans="1:3" ht="55.8" thickBot="1">
+    <row r="519" spans="1:3" ht="28.2" thickBot="1">
       <c r="A519" s="2" t="s">
         <v>1353</v>
       </c>
@@ -23843,7 +23847,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="520" spans="1:3" ht="55.8" thickBot="1">
+    <row r="520" spans="1:3" ht="28.2" thickBot="1">
       <c r="A520" s="1" t="s">
         <v>1353</v>
       </c>
@@ -23854,7 +23858,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="521" spans="1:3" ht="42" thickBot="1">
+    <row r="521" spans="1:3" ht="28.2" thickBot="1">
       <c r="A521" s="2" t="s">
         <v>1353</v>
       </c>
@@ -23865,7 +23869,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="522" spans="1:3" ht="42" thickBot="1">
+    <row r="522" spans="1:3" ht="28.2" thickBot="1">
       <c r="A522" s="1" t="s">
         <v>1353</v>
       </c>
@@ -23876,7 +23880,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="523" spans="1:3" ht="69.599999999999994" thickBot="1">
+    <row r="523" spans="1:3" ht="28.2" thickBot="1">
       <c r="A523" s="2" t="s">
         <v>1353</v>
       </c>
@@ -23887,7 +23891,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="524" spans="1:3" ht="42" thickBot="1">
+    <row r="524" spans="1:3" ht="28.2" thickBot="1">
       <c r="A524" s="1" t="s">
         <v>1353</v>
       </c>
@@ -23920,7 +23924,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="527" spans="1:3" ht="55.8" thickBot="1">
+    <row r="527" spans="1:3" ht="28.2" thickBot="1">
       <c r="A527" s="2" t="s">
         <v>1353</v>
       </c>
@@ -23931,7 +23935,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="528" spans="1:3" ht="55.8" thickBot="1">
+    <row r="528" spans="1:3" ht="28.2" thickBot="1">
       <c r="A528" s="1" t="s">
         <v>1353</v>
       </c>
@@ -23975,7 +23979,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="532" spans="1:3" ht="55.8" thickBot="1">
+    <row r="532" spans="1:3" ht="28.2" thickBot="1">
       <c r="A532" s="1" t="s">
         <v>1353</v>
       </c>
@@ -23997,7 +24001,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="534" spans="1:3" ht="42" thickBot="1">
+    <row r="534" spans="1:3" ht="28.2" thickBot="1">
       <c r="A534" s="1" t="s">
         <v>1353</v>
       </c>
@@ -24008,7 +24012,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="535" spans="1:3" ht="42" thickBot="1">
+    <row r="535" spans="1:3" ht="28.2" thickBot="1">
       <c r="A535" s="2" t="s">
         <v>1353</v>
       </c>
@@ -24162,7 +24166,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="549" spans="1:3" ht="69.599999999999994" thickBot="1">
+    <row r="549" spans="1:3" ht="42" thickBot="1">
       <c r="A549" s="2" t="s">
         <v>1353</v>
       </c>
@@ -24195,7 +24199,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="552" spans="1:3" ht="42" thickBot="1">
+    <row r="552" spans="1:3" ht="28.2" thickBot="1">
       <c r="A552" s="1" t="s">
         <v>1353</v>
       </c>
@@ -24217,7 +24221,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="554" spans="1:3" ht="55.8" thickBot="1">
+    <row r="554" spans="1:3" ht="28.2" thickBot="1">
       <c r="A554" s="1" t="s">
         <v>1353</v>
       </c>
@@ -24228,7 +24232,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="555" spans="1:3" ht="42" thickBot="1">
+    <row r="555" spans="1:3" ht="28.2" thickBot="1">
       <c r="A555" s="2" t="s">
         <v>1353</v>
       </c>
@@ -24239,7 +24243,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="556" spans="1:3" ht="55.8" thickBot="1">
+    <row r="556" spans="1:3" ht="28.2" thickBot="1">
       <c r="A556" s="1" t="s">
         <v>1353</v>
       </c>
@@ -24272,7 +24276,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="559" spans="1:3" ht="42" thickBot="1">
+    <row r="559" spans="1:3" ht="28.2" thickBot="1">
       <c r="A559" s="2" t="s">
         <v>1353</v>
       </c>
@@ -24305,7 +24309,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="562" spans="1:3" ht="42" thickBot="1">
+    <row r="562" spans="1:3" ht="28.2" thickBot="1">
       <c r="A562" s="1" t="s">
         <v>1353</v>
       </c>
@@ -24316,7 +24320,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="563" spans="1:3" ht="55.8" thickBot="1">
+    <row r="563" spans="1:3" ht="28.2" thickBot="1">
       <c r="A563" s="2" t="s">
         <v>1353</v>
       </c>
@@ -24327,7 +24331,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="564" spans="1:3" ht="42" thickBot="1">
+    <row r="564" spans="1:3" ht="28.2" thickBot="1">
       <c r="A564" s="1" t="s">
         <v>1353</v>
       </c>
@@ -24393,7 +24397,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="570" spans="1:3" ht="28.2" thickBot="1">
+    <row r="570" spans="1:3" ht="15" thickBot="1">
       <c r="A570" s="1" t="s">
         <v>1353</v>
       </c>
@@ -24404,7 +24408,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="571" spans="1:3" ht="28.2" thickBot="1">
+    <row r="571" spans="1:3" ht="15" thickBot="1">
       <c r="A571" s="2" t="s">
         <v>1353</v>
       </c>
@@ -24415,7 +24419,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="572" spans="1:3" ht="28.2" thickBot="1">
+    <row r="572" spans="1:3" ht="15" thickBot="1">
       <c r="A572" s="1" t="s">
         <v>1353</v>
       </c>
@@ -24426,7 +24430,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="573" spans="1:3" ht="69.599999999999994" thickBot="1">
+    <row r="573" spans="1:3" ht="42" thickBot="1">
       <c r="A573" s="2" t="s">
         <v>1353</v>
       </c>
@@ -24437,7 +24441,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="574" spans="1:3" ht="28.2" thickBot="1">
+    <row r="574" spans="1:3" ht="15" thickBot="1">
       <c r="A574" s="1" t="s">
         <v>1353</v>
       </c>
@@ -24448,7 +24452,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="575" spans="1:3" ht="28.2" thickBot="1">
+    <row r="575" spans="1:3" ht="15" thickBot="1">
       <c r="A575" s="2" t="s">
         <v>1353</v>
       </c>
@@ -24459,7 +24463,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="576" spans="1:3" ht="55.8" thickBot="1">
+    <row r="576" spans="1:3" ht="15" thickBot="1">
       <c r="A576" s="1" t="s">
         <v>1353</v>
       </c>
@@ -24470,7 +24474,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="577" spans="1:3" ht="28.2" thickBot="1">
+    <row r="577" spans="1:3" ht="15" thickBot="1">
       <c r="A577" s="2" t="s">
         <v>1353</v>
       </c>
@@ -24481,7 +24485,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="578" spans="1:3" ht="28.2" thickBot="1">
+    <row r="578" spans="1:3" ht="15" thickBot="1">
       <c r="A578" s="1" t="s">
         <v>1353</v>
       </c>
@@ -24492,7 +24496,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="579" spans="1:3" ht="69.599999999999994" thickBot="1">
+    <row r="579" spans="1:3" ht="28.2" thickBot="1">
       <c r="A579" s="2" t="s">
         <v>1353</v>
       </c>
@@ -24503,7 +24507,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="580" spans="1:3" ht="83.4" thickBot="1">
+    <row r="580" spans="1:3" ht="42" thickBot="1">
       <c r="A580" s="1" t="s">
         <v>1353</v>
       </c>
@@ -24514,7 +24518,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="581" spans="1:3" ht="28.2" thickBot="1">
+    <row r="581" spans="1:3" ht="15" thickBot="1">
       <c r="A581" s="2" t="s">
         <v>1353</v>
       </c>
@@ -24525,7 +24529,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="582" spans="1:3" ht="55.8" thickBot="1">
+    <row r="582" spans="1:3" ht="28.2" thickBot="1">
       <c r="A582" s="1" t="s">
         <v>1353</v>
       </c>
@@ -24536,7 +24540,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="583" spans="1:3" ht="42" thickBot="1">
+    <row r="583" spans="1:3" ht="15" thickBot="1">
       <c r="A583" s="2" t="s">
         <v>1353</v>
       </c>
@@ -24547,7 +24551,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="584" spans="1:3" ht="28.2" thickBot="1">
+    <row r="584" spans="1:3" ht="15" thickBot="1">
       <c r="A584" s="1" t="s">
         <v>1353</v>
       </c>
@@ -24558,7 +24562,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="585" spans="1:3" ht="55.8" thickBot="1">
+    <row r="585" spans="1:3" ht="28.2" thickBot="1">
       <c r="A585" s="2" t="s">
         <v>1353</v>
       </c>
@@ -24569,7 +24573,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="586" spans="1:3" ht="28.2" thickBot="1">
+    <row r="586" spans="1:3" ht="15" thickBot="1">
       <c r="A586" s="1" t="s">
         <v>1353</v>
       </c>
@@ -24580,7 +24584,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="587" spans="1:3" ht="28.2" thickBot="1">
+    <row r="587" spans="1:3" ht="15" thickBot="1">
       <c r="A587" s="2" t="s">
         <v>1353</v>
       </c>
@@ -24591,7 +24595,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="588" spans="1:3" ht="42" thickBot="1">
+    <row r="588" spans="1:3" ht="28.2" thickBot="1">
       <c r="A588" s="1" t="s">
         <v>1353</v>
       </c>
@@ -24602,7 +24606,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="589" spans="1:3" ht="42" thickBot="1">
+    <row r="589" spans="1:3" ht="28.2" thickBot="1">
       <c r="A589" s="2" t="s">
         <v>1353</v>
       </c>
@@ -24613,7 +24617,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="590" spans="1:3" ht="97.2" thickBot="1">
+    <row r="590" spans="1:3" ht="42" thickBot="1">
       <c r="A590" s="1" t="s">
         <v>1353</v>
       </c>
@@ -24624,7 +24628,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="591" spans="1:3" ht="97.2" thickBot="1">
+    <row r="591" spans="1:3" ht="42" thickBot="1">
       <c r="A591" s="2" t="s">
         <v>1353</v>
       </c>
@@ -24635,7 +24639,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="592" spans="1:3" ht="55.8" thickBot="1">
+    <row r="592" spans="1:3" ht="28.2" thickBot="1">
       <c r="A592" s="1" t="s">
         <v>1353</v>
       </c>
@@ -24646,7 +24650,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="593" spans="1:3" ht="28.2" thickBot="1">
+    <row r="593" spans="1:3" ht="15" thickBot="1">
       <c r="A593" s="2" t="s">
         <v>1353</v>
       </c>
@@ -24657,7 +24661,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="594" spans="1:3" ht="28.2" thickBot="1">
+    <row r="594" spans="1:3" ht="15" thickBot="1">
       <c r="A594" s="1" t="s">
         <v>1353</v>
       </c>
@@ -24668,7 +24672,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="595" spans="1:3" ht="28.2" thickBot="1">
+    <row r="595" spans="1:3" ht="15" thickBot="1">
       <c r="A595" s="2" t="s">
         <v>1353</v>
       </c>
@@ -24679,7 +24683,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="596" spans="1:3" ht="28.2" thickBot="1">
+    <row r="596" spans="1:3" ht="15" thickBot="1">
       <c r="A596" s="1" t="s">
         <v>1353</v>
       </c>
@@ -24690,7 +24694,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="597" spans="1:3" ht="55.8" thickBot="1">
+    <row r="597" spans="1:3" ht="28.2" thickBot="1">
       <c r="A597" s="2" t="s">
         <v>1353</v>
       </c>
@@ -24701,7 +24705,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="598" spans="1:3" ht="111" thickBot="1">
+    <row r="598" spans="1:3" ht="55.8" thickBot="1">
       <c r="A598" s="1" t="s">
         <v>1353</v>
       </c>
@@ -24712,7 +24716,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="599" spans="1:3" ht="28.2" thickBot="1">
+    <row r="599" spans="1:3" ht="15" thickBot="1">
       <c r="A599" s="2" t="s">
         <v>1353</v>
       </c>
@@ -24723,7 +24727,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="600" spans="1:3" ht="42" thickBot="1">
+    <row r="600" spans="1:3" ht="15" thickBot="1">
       <c r="A600" s="1" t="s">
         <v>1353</v>
       </c>
@@ -24734,7 +24738,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="601" spans="1:3" ht="28.2" thickBot="1">
+    <row r="601" spans="1:3" ht="15" thickBot="1">
       <c r="A601" s="2" t="s">
         <v>1353</v>
       </c>
@@ -24745,7 +24749,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="602" spans="1:3" ht="28.2" thickBot="1">
+    <row r="602" spans="1:3" ht="15" thickBot="1">
       <c r="A602" s="1" t="s">
         <v>1353</v>
       </c>
@@ -24756,7 +24760,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="603" spans="1:3" ht="83.4" thickBot="1">
+    <row r="603" spans="1:3" ht="42" thickBot="1">
       <c r="A603" s="2" t="s">
         <v>1353</v>
       </c>
@@ -24767,7 +24771,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="604" spans="1:3" ht="55.8" thickBot="1">
+    <row r="604" spans="1:3" ht="28.2" thickBot="1">
       <c r="A604" s="1" t="s">
         <v>1353</v>
       </c>
@@ -24778,7 +24782,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="605" spans="1:3" ht="55.8" thickBot="1">
+    <row r="605" spans="1:3" ht="28.2" thickBot="1">
       <c r="A605" s="2" t="s">
         <v>1353</v>
       </c>
@@ -24789,7 +24793,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="606" spans="1:3" ht="28.2" thickBot="1">
+    <row r="606" spans="1:3" ht="15" thickBot="1">
       <c r="A606" s="1" t="s">
         <v>1353</v>
       </c>
@@ -24800,7 +24804,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="607" spans="1:3" ht="42" thickBot="1">
+    <row r="607" spans="1:3" ht="15" thickBot="1">
       <c r="A607" s="2" t="s">
         <v>1353</v>
       </c>
@@ -24811,7 +24815,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="608" spans="1:3" ht="28.2" thickBot="1">
+    <row r="608" spans="1:3" ht="15" thickBot="1">
       <c r="A608" s="1" t="s">
         <v>1353</v>
       </c>
@@ -24822,7 +24826,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="609" spans="1:3" ht="28.2" thickBot="1">
+    <row r="609" spans="1:3" ht="15" thickBot="1">
       <c r="A609" s="2" t="s">
         <v>1353</v>
       </c>
@@ -24833,7 +24837,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="610" spans="1:3" ht="28.2" thickBot="1">
+    <row r="610" spans="1:3" ht="15" thickBot="1">
       <c r="A610" s="1" t="s">
         <v>1353</v>
       </c>
@@ -24844,7 +24848,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="611" spans="1:3" ht="28.2" thickBot="1">
+    <row r="611" spans="1:3" ht="15" thickBot="1">
       <c r="A611" s="2" t="s">
         <v>1353</v>
       </c>
@@ -24855,7 +24859,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="612" spans="1:3" ht="69.599999999999994" thickBot="1">
+    <row r="612" spans="1:3" ht="28.2" thickBot="1">
       <c r="A612" s="1" t="s">
         <v>1353</v>
       </c>
@@ -24866,7 +24870,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="613" spans="1:3" ht="28.2" thickBot="1">
+    <row r="613" spans="1:3" ht="15" thickBot="1">
       <c r="A613" s="2" t="s">
         <v>1353</v>
       </c>
@@ -24877,7 +24881,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="614" spans="1:3" ht="55.8" thickBot="1">
+    <row r="614" spans="1:3" ht="28.2" thickBot="1">
       <c r="A614" s="1" t="s">
         <v>1353</v>
       </c>
@@ -24888,7 +24892,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="615" spans="1:3" ht="97.2" thickBot="1">
+    <row r="615" spans="1:3" ht="55.8" thickBot="1">
       <c r="A615" s="2" t="s">
         <v>1353</v>
       </c>
@@ -24899,7 +24903,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="616" spans="1:3" ht="42" thickBot="1">
+    <row r="616" spans="1:3" ht="15" thickBot="1">
       <c r="A616" s="1" t="s">
         <v>1353</v>
       </c>
@@ -24910,7 +24914,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="617" spans="1:3" ht="28.2" thickBot="1">
+    <row r="617" spans="1:3" ht="15" thickBot="1">
       <c r="A617" s="2" t="s">
         <v>1353</v>
       </c>
@@ -24921,7 +24925,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="618" spans="1:3" ht="28.2" thickBot="1">
+    <row r="618" spans="1:3" ht="15" thickBot="1">
       <c r="A618" s="1" t="s">
         <v>1353</v>
       </c>
@@ -24932,7 +24936,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="619" spans="1:3" ht="42" thickBot="1">
+    <row r="619" spans="1:3" ht="28.2" thickBot="1">
       <c r="A619" s="2" t="s">
         <v>1353</v>
       </c>
@@ -24943,7 +24947,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="620" spans="1:3" ht="28.2" thickBot="1">
+    <row r="620" spans="1:3" ht="15" thickBot="1">
       <c r="A620" s="1" t="s">
         <v>1353</v>
       </c>
@@ -24954,7 +24958,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="621" spans="1:3" ht="28.2" thickBot="1">
+    <row r="621" spans="1:3" ht="15" thickBot="1">
       <c r="A621" s="2" t="s">
         <v>1353</v>
       </c>
@@ -24965,7 +24969,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="622" spans="1:3" ht="55.8" thickBot="1">
+    <row r="622" spans="1:3" ht="28.2" thickBot="1">
       <c r="A622" s="1" t="s">
         <v>1353</v>
       </c>
@@ -24976,7 +24980,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="623" spans="1:3" ht="28.2" thickBot="1">
+    <row r="623" spans="1:3" ht="15" thickBot="1">
       <c r="A623" s="2" t="s">
         <v>1353</v>
       </c>
@@ -24987,7 +24991,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="624" spans="1:3" ht="42" thickBot="1">
+    <row r="624" spans="1:3" ht="28.2" thickBot="1">
       <c r="A624" s="1" t="s">
         <v>1685</v>
       </c>
@@ -24998,7 +25002,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="625" spans="1:3" ht="42" thickBot="1">
+    <row r="625" spans="1:3" ht="28.2" thickBot="1">
       <c r="A625" s="2" t="s">
         <v>1685</v>
       </c>
@@ -25009,7 +25013,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="626" spans="1:3" ht="42" thickBot="1">
+    <row r="626" spans="1:3" ht="28.2" thickBot="1">
       <c r="A626" s="1" t="s">
         <v>1685</v>
       </c>
@@ -25086,7 +25090,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="633" spans="1:3" ht="42" thickBot="1">
+    <row r="633" spans="1:3" ht="28.2" thickBot="1">
       <c r="A633" s="2" t="s">
         <v>1685</v>
       </c>
@@ -25141,7 +25145,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="638" spans="1:3" ht="55.8" thickBot="1">
+    <row r="638" spans="1:3" ht="28.2" thickBot="1">
       <c r="A638" s="1" t="s">
         <v>1685</v>
       </c>
@@ -25196,7 +25200,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="643" spans="1:3" ht="42" thickBot="1">
+    <row r="643" spans="1:3" ht="28.2" thickBot="1">
       <c r="A643" s="2" t="s">
         <v>1685</v>
       </c>
@@ -25284,7 +25288,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="651" spans="1:3" ht="42" thickBot="1">
+    <row r="651" spans="1:3" ht="28.2" thickBot="1">
       <c r="A651" s="2" t="s">
         <v>1685</v>
       </c>
@@ -25306,7 +25310,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="653" spans="1:3" ht="42" thickBot="1">
+    <row r="653" spans="1:3" ht="28.2" thickBot="1">
       <c r="A653" s="2" t="s">
         <v>1685</v>
       </c>
@@ -25394,7 +25398,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="661" spans="1:3" ht="42" thickBot="1">
+    <row r="661" spans="1:3" ht="28.2" thickBot="1">
       <c r="A661" s="2" t="s">
         <v>1685</v>
       </c>
@@ -25405,7 +25409,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="662" spans="1:3" ht="55.8" thickBot="1">
+    <row r="662" spans="1:3" ht="28.2" thickBot="1">
       <c r="A662" s="1" t="s">
         <v>1685</v>
       </c>
@@ -25460,7 +25464,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="667" spans="1:3" ht="55.8" thickBot="1">
+    <row r="667" spans="1:3" ht="28.2" thickBot="1">
       <c r="A667" s="2" t="s">
         <v>1685</v>
       </c>
@@ -25504,7 +25508,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="671" spans="1:3" ht="55.8" thickBot="1">
+    <row r="671" spans="1:3" ht="28.2" thickBot="1">
       <c r="A671" s="2" t="s">
         <v>1685</v>
       </c>
@@ -25526,7 +25530,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="673" spans="1:3" ht="69.599999999999994" thickBot="1">
+    <row r="673" spans="1:3" ht="28.2" thickBot="1">
       <c r="A673" s="2" t="s">
         <v>1685</v>
       </c>
@@ -25548,7 +25552,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="675" spans="1:3" ht="42" thickBot="1">
+    <row r="675" spans="1:3" ht="28.2" thickBot="1">
       <c r="A675" s="2" t="s">
         <v>1685</v>
       </c>
@@ -25559,7 +25563,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="676" spans="1:3" ht="55.8" thickBot="1">
+    <row r="676" spans="1:3" ht="28.2" thickBot="1">
       <c r="A676" s="1" t="s">
         <v>1685</v>
       </c>
@@ -25570,7 +25574,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="677" spans="1:3" ht="42" thickBot="1">
+    <row r="677" spans="1:3" ht="28.2" thickBot="1">
       <c r="A677" s="2" t="s">
         <v>1685</v>
       </c>
@@ -25680,7 +25684,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="687" spans="1:3" ht="42" thickBot="1">
+    <row r="687" spans="1:3" ht="28.2" thickBot="1">
       <c r="A687" s="2" t="s">
         <v>1685</v>
       </c>
@@ -25768,7 +25772,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="695" spans="1:3" ht="42" thickBot="1">
+    <row r="695" spans="1:3" ht="28.2" thickBot="1">
       <c r="A695" s="2" t="s">
         <v>1685</v>
       </c>
@@ -25801,7 +25805,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="698" spans="1:3" ht="55.8" thickBot="1">
+    <row r="698" spans="1:3" ht="28.2" thickBot="1">
       <c r="A698" s="1" t="s">
         <v>1685</v>
       </c>
@@ -25823,7 +25827,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="700" spans="1:3" ht="42" thickBot="1">
+    <row r="700" spans="1:3" ht="28.2" thickBot="1">
       <c r="A700" s="1" t="s">
         <v>1685</v>
       </c>
@@ -25856,7 +25860,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="703" spans="1:3" ht="42" thickBot="1">
+    <row r="703" spans="1:3" ht="28.2" thickBot="1">
       <c r="A703" s="2" t="s">
         <v>1685</v>
       </c>
@@ -25955,7 +25959,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="712" spans="1:3" ht="42" thickBot="1">
+    <row r="712" spans="1:3" ht="28.2" thickBot="1">
       <c r="A712" s="1" t="s">
         <v>1685</v>
       </c>
@@ -25977,7 +25981,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="714" spans="1:3" ht="42" thickBot="1">
+    <row r="714" spans="1:3" ht="28.2" thickBot="1">
       <c r="A714" s="1" t="s">
         <v>1685</v>
       </c>
@@ -25988,7 +25992,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="715" spans="1:3" ht="42" thickBot="1">
+    <row r="715" spans="1:3" ht="28.2" thickBot="1">
       <c r="A715" s="2" t="s">
         <v>1685</v>
       </c>
@@ -25999,7 +26003,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="716" spans="1:3" ht="42" thickBot="1">
+    <row r="716" spans="1:3" ht="28.2" thickBot="1">
       <c r="A716" s="1" t="s">
         <v>1685</v>
       </c>
@@ -26032,7 +26036,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="719" spans="1:3" ht="69.599999999999994" thickBot="1">
+    <row r="719" spans="1:3" ht="28.2" thickBot="1">
       <c r="A719" s="2" t="s">
         <v>1685</v>
       </c>
@@ -26065,7 +26069,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="722" spans="1:3" ht="42" thickBot="1">
+    <row r="722" spans="1:3" ht="28.2" thickBot="1">
       <c r="A722" s="1" t="s">
         <v>1685</v>
       </c>
@@ -26098,7 +26102,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="725" spans="1:3" ht="42" thickBot="1">
+    <row r="725" spans="1:3" ht="28.2" thickBot="1">
       <c r="A725" s="2" t="s">
         <v>1685</v>
       </c>
@@ -26120,7 +26124,7 @@
         <v>1789</v>
       </c>
     </row>
-    <row r="727" spans="1:3" ht="42" thickBot="1">
+    <row r="727" spans="1:3" ht="28.2" thickBot="1">
       <c r="A727" s="2" t="s">
         <v>1685</v>
       </c>
@@ -26131,7 +26135,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="728" spans="1:3" ht="42" thickBot="1">
+    <row r="728" spans="1:3" ht="28.2" thickBot="1">
       <c r="A728" s="1" t="s">
         <v>1685</v>
       </c>
@@ -26164,7 +26168,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="731" spans="1:3" ht="55.8" thickBot="1">
+    <row r="731" spans="1:3" ht="28.2" thickBot="1">
       <c r="A731" s="2" t="s">
         <v>1685</v>
       </c>
@@ -26186,7 +26190,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="733" spans="1:3" ht="42" thickBot="1">
+    <row r="733" spans="1:3" ht="28.2" thickBot="1">
       <c r="A733" s="2" t="s">
         <v>1685</v>
       </c>
@@ -26208,7 +26212,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="735" spans="1:3" ht="42" thickBot="1">
+    <row r="735" spans="1:3" ht="28.2" thickBot="1">
       <c r="A735" s="2" t="s">
         <v>1685</v>
       </c>
@@ -26219,7 +26223,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="736" spans="1:3" ht="42" thickBot="1">
+    <row r="736" spans="1:3" ht="28.2" thickBot="1">
       <c r="A736" s="1" t="s">
         <v>1685</v>
       </c>
@@ -26230,7 +26234,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="737" spans="1:3" ht="55.8" thickBot="1">
+    <row r="737" spans="1:3" ht="28.2" thickBot="1">
       <c r="A737" s="2" t="s">
         <v>1685</v>
       </c>
@@ -26241,7 +26245,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="738" spans="1:3" ht="55.8" thickBot="1">
+    <row r="738" spans="1:3" ht="28.2" thickBot="1">
       <c r="A738" s="1" t="s">
         <v>1685</v>
       </c>
@@ -26263,7 +26267,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="740" spans="1:3" ht="42" thickBot="1">
+    <row r="740" spans="1:3" ht="28.2" thickBot="1">
       <c r="A740" s="1" t="s">
         <v>1685</v>
       </c>
@@ -26274,7 +26278,7 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="741" spans="1:3" ht="28.2" thickBot="1">
+    <row r="741" spans="1:3" ht="15" thickBot="1">
       <c r="A741" s="2" t="s">
         <v>1804</v>
       </c>
@@ -26285,7 +26289,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="742" spans="1:3" ht="28.2" thickBot="1">
+    <row r="742" spans="1:3" ht="15" thickBot="1">
       <c r="A742" s="1" t="s">
         <v>1804</v>
       </c>
@@ -26296,7 +26300,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="743" spans="1:3" ht="28.2" thickBot="1">
+    <row r="743" spans="1:3" ht="15" thickBot="1">
       <c r="A743" s="2" t="s">
         <v>1804</v>
       </c>
@@ -26307,7 +26311,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="744" spans="1:3" ht="28.2" thickBot="1">
+    <row r="744" spans="1:3" ht="15" thickBot="1">
       <c r="A744" s="1" t="s">
         <v>1804</v>
       </c>
@@ -26318,7 +26322,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="745" spans="1:3" ht="28.2" thickBot="1">
+    <row r="745" spans="1:3" ht="15" thickBot="1">
       <c r="A745" s="2" t="s">
         <v>1804</v>
       </c>
@@ -26329,7 +26333,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="746" spans="1:3" ht="28.2" thickBot="1">
+    <row r="746" spans="1:3" ht="15" thickBot="1">
       <c r="A746" s="1" t="s">
         <v>1804</v>
       </c>
@@ -26340,7 +26344,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="747" spans="1:3" ht="28.2" thickBot="1">
+    <row r="747" spans="1:3" ht="15" thickBot="1">
       <c r="A747" s="2" t="s">
         <v>1804</v>
       </c>
@@ -26351,7 +26355,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="748" spans="1:3" ht="28.2" thickBot="1">
+    <row r="748" spans="1:3" ht="15" thickBot="1">
       <c r="A748" s="1" t="s">
         <v>1804</v>
       </c>
@@ -26362,7 +26366,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="749" spans="1:3" ht="28.2" thickBot="1">
+    <row r="749" spans="1:3" ht="15" thickBot="1">
       <c r="A749" s="2" t="s">
         <v>1804</v>
       </c>
@@ -26373,7 +26377,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="750" spans="1:3" ht="28.2" thickBot="1">
+    <row r="750" spans="1:3" ht="15" thickBot="1">
       <c r="A750" s="1" t="s">
         <v>1804</v>
       </c>
@@ -26384,7 +26388,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="751" spans="1:3" ht="28.2" thickBot="1">
+    <row r="751" spans="1:3" ht="15" thickBot="1">
       <c r="A751" s="2" t="s">
         <v>1804</v>
       </c>
@@ -26395,7 +26399,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="752" spans="1:3" ht="42" thickBot="1">
+    <row r="752" spans="1:3" ht="15" thickBot="1">
       <c r="A752" s="1" t="s">
         <v>1804</v>
       </c>
@@ -26406,7 +26410,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="753" spans="1:3" ht="28.2" thickBot="1">
+    <row r="753" spans="1:3" ht="15" thickBot="1">
       <c r="A753" s="2" t="s">
         <v>1804</v>
       </c>
@@ -26417,7 +26421,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="754" spans="1:3" ht="42" thickBot="1">
+    <row r="754" spans="1:3" ht="28.2" thickBot="1">
       <c r="A754" s="1" t="s">
         <v>1804</v>
       </c>
@@ -26428,7 +26432,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="755" spans="1:3" ht="28.2" thickBot="1">
+    <row r="755" spans="1:3" ht="15" thickBot="1">
       <c r="A755" s="2" t="s">
         <v>1804</v>
       </c>
@@ -26439,7 +26443,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="756" spans="1:3" ht="28.2" thickBot="1">
+    <row r="756" spans="1:3" ht="15" thickBot="1">
       <c r="A756" s="1" t="s">
         <v>1804</v>
       </c>
@@ -26450,7 +26454,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="757" spans="1:3" ht="28.2" thickBot="1">
+    <row r="757" spans="1:3" ht="15" thickBot="1">
       <c r="A757" s="2" t="s">
         <v>1804</v>
       </c>
@@ -26461,7 +26465,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="758" spans="1:3" ht="28.2" thickBot="1">
+    <row r="758" spans="1:3" ht="15" thickBot="1">
       <c r="A758" s="1" t="s">
         <v>1804</v>
       </c>
@@ -26472,7 +26476,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="759" spans="1:3" ht="55.8" thickBot="1">
+    <row r="759" spans="1:3" ht="15" thickBot="1">
       <c r="A759" s="2" t="s">
         <v>1804</v>
       </c>
@@ -26483,7 +26487,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="760" spans="1:3" ht="28.2" thickBot="1">
+    <row r="760" spans="1:3" ht="15" thickBot="1">
       <c r="A760" s="1" t="s">
         <v>1804</v>
       </c>
@@ -26494,7 +26498,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="761" spans="1:3" ht="28.2" thickBot="1">
+    <row r="761" spans="1:3" ht="15" thickBot="1">
       <c r="A761" s="2" t="s">
         <v>1804</v>
       </c>
@@ -26505,7 +26509,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="762" spans="1:3" ht="28.2" thickBot="1">
+    <row r="762" spans="1:3" ht="15" thickBot="1">
       <c r="A762" s="1" t="s">
         <v>1804</v>
       </c>
@@ -26516,7 +26520,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="763" spans="1:3" ht="28.2" thickBot="1">
+    <row r="763" spans="1:3" ht="15" thickBot="1">
       <c r="A763" s="2" t="s">
         <v>1804</v>
       </c>
@@ -26527,7 +26531,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="764" spans="1:3" ht="28.2" thickBot="1">
+    <row r="764" spans="1:3" ht="15" thickBot="1">
       <c r="A764" s="1" t="s">
         <v>1804</v>
       </c>
@@ -26538,7 +26542,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="765" spans="1:3" ht="42" thickBot="1">
+    <row r="765" spans="1:3" ht="15" thickBot="1">
       <c r="A765" s="2" t="s">
         <v>1804</v>
       </c>
@@ -26549,7 +26553,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="766" spans="1:3" ht="28.2" thickBot="1">
+    <row r="766" spans="1:3" ht="15" thickBot="1">
       <c r="A766" s="1" t="s">
         <v>1804</v>
       </c>
@@ -26560,7 +26564,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="767" spans="1:3" ht="111" thickBot="1">
+    <row r="767" spans="1:3" ht="69.599999999999994" thickBot="1">
       <c r="A767" s="2" t="s">
         <v>1804</v>
       </c>
@@ -26571,7 +26575,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="768" spans="1:3" ht="28.2" thickBot="1">
+    <row r="768" spans="1:3" ht="15" thickBot="1">
       <c r="A768" s="1" t="s">
         <v>1804</v>
       </c>
@@ -26582,7 +26586,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="769" spans="1:3" ht="28.2" thickBot="1">
+    <row r="769" spans="1:3" ht="15" thickBot="1">
       <c r="A769" s="2" t="s">
         <v>1804</v>
       </c>
@@ -26593,7 +26597,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="770" spans="1:3" ht="42" thickBot="1">
+    <row r="770" spans="1:3" ht="28.2" thickBot="1">
       <c r="A770" s="1" t="s">
         <v>1804</v>
       </c>
@@ -26670,7 +26674,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="777" spans="1:3" ht="42" thickBot="1">
+    <row r="777" spans="1:3" ht="28.2" thickBot="1">
       <c r="A777" s="2" t="s">
         <v>1804</v>
       </c>
@@ -26725,7 +26729,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="782" spans="1:3" ht="28.2" thickBot="1">
+    <row r="782" spans="1:3" ht="15" thickBot="1">
       <c r="A782" s="1" t="s">
         <v>1804</v>
       </c>
@@ -26736,7 +26740,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="783" spans="1:3" ht="28.2" thickBot="1">
+    <row r="783" spans="1:3" ht="15" thickBot="1">
       <c r="A783" s="2" t="s">
         <v>1804</v>
       </c>
@@ -26747,7 +26751,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="784" spans="1:3" ht="28.2" thickBot="1">
+    <row r="784" spans="1:3" ht="15" thickBot="1">
       <c r="A784" s="1" t="s">
         <v>1804</v>
       </c>
@@ -26758,7 +26762,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="785" spans="1:3" ht="28.2" thickBot="1">
+    <row r="785" spans="1:3" ht="15" thickBot="1">
       <c r="A785" s="2" t="s">
         <v>1804</v>
       </c>
@@ -26769,7 +26773,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="786" spans="1:3" ht="28.2" thickBot="1">
+    <row r="786" spans="1:3" ht="15" thickBot="1">
       <c r="A786" s="1" t="s">
         <v>1804</v>
       </c>
@@ -26780,7 +26784,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="787" spans="1:3" ht="28.2" thickBot="1">
+    <row r="787" spans="1:3" ht="15" thickBot="1">
       <c r="A787" s="2" t="s">
         <v>1804</v>
       </c>
@@ -26791,7 +26795,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="788" spans="1:3" ht="28.2" thickBot="1">
+    <row r="788" spans="1:3" ht="15" thickBot="1">
       <c r="A788" s="1" t="s">
         <v>1804</v>
       </c>
@@ -26802,7 +26806,7 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="789" spans="1:3" ht="28.2" thickBot="1">
+    <row r="789" spans="1:3" ht="15" thickBot="1">
       <c r="A789" s="2" t="s">
         <v>1804</v>
       </c>
@@ -26813,7 +26817,7 @@
         <v>1854</v>
       </c>
     </row>
-    <row r="790" spans="1:3" ht="28.2" thickBot="1">
+    <row r="790" spans="1:3" ht="15" thickBot="1">
       <c r="A790" s="1" t="s">
         <v>1804</v>
       </c>
@@ -26824,7 +26828,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="791" spans="1:3" ht="28.2" thickBot="1">
+    <row r="791" spans="1:3" ht="15" thickBot="1">
       <c r="A791" s="2" t="s">
         <v>1804</v>
       </c>
@@ -26835,7 +26839,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row r="792" spans="1:3" ht="28.2" thickBot="1">
+    <row r="792" spans="1:3" ht="15" thickBot="1">
       <c r="A792" s="1" t="s">
         <v>1804</v>
       </c>
@@ -26846,7 +26850,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="793" spans="1:3" ht="28.2" thickBot="1">
+    <row r="793" spans="1:3" ht="15" thickBot="1">
       <c r="A793" s="2" t="s">
         <v>1804</v>
       </c>
@@ -26857,7 +26861,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="794" spans="1:3" ht="28.2" thickBot="1">
+    <row r="794" spans="1:3" ht="15" thickBot="1">
       <c r="A794" s="1" t="s">
         <v>1804</v>
       </c>
@@ -26868,7 +26872,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="795" spans="1:3" ht="28.2" thickBot="1">
+    <row r="795" spans="1:3" ht="15" thickBot="1">
       <c r="A795" s="2" t="s">
         <v>1804</v>
       </c>
@@ -26879,7 +26883,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="796" spans="1:3" ht="28.2" thickBot="1">
+    <row r="796" spans="1:3" ht="15" thickBot="1">
       <c r="A796" s="1" t="s">
         <v>1804</v>
       </c>
@@ -26890,7 +26894,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="797" spans="1:3" ht="42" thickBot="1">
+    <row r="797" spans="1:3" ht="15" thickBot="1">
       <c r="A797" s="2" t="s">
         <v>1804</v>
       </c>
@@ -26901,7 +26905,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="798" spans="1:3" ht="42" thickBot="1">
+    <row r="798" spans="1:3" ht="15" thickBot="1">
       <c r="A798" s="1" t="s">
         <v>1804</v>
       </c>
@@ -26912,7 +26916,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="799" spans="1:3" ht="28.2" thickBot="1">
+    <row r="799" spans="1:3" ht="15" thickBot="1">
       <c r="A799" s="2" t="s">
         <v>1804</v>
       </c>
@@ -26923,7 +26927,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="800" spans="1:3" ht="28.2" thickBot="1">
+    <row r="800" spans="1:3" ht="15" thickBot="1">
       <c r="A800" s="1" t="s">
         <v>1804</v>
       </c>
@@ -26934,7 +26938,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="801" spans="1:3" ht="28.2" thickBot="1">
+    <row r="801" spans="1:3" ht="15" thickBot="1">
       <c r="A801" s="2" t="s">
         <v>1804</v>
       </c>
@@ -26945,7 +26949,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="802" spans="1:3" ht="28.2" thickBot="1">
+    <row r="802" spans="1:3" ht="15" thickBot="1">
       <c r="A802" s="1" t="s">
         <v>1804</v>
       </c>
@@ -26956,7 +26960,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="803" spans="1:3" ht="28.2" thickBot="1">
+    <row r="803" spans="1:3" ht="15" thickBot="1">
       <c r="A803" s="2" t="s">
         <v>1804</v>
       </c>
@@ -26967,7 +26971,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="804" spans="1:3" ht="28.2" thickBot="1">
+    <row r="804" spans="1:3" ht="15" thickBot="1">
       <c r="A804" s="1" t="s">
         <v>1804</v>
       </c>
@@ -26978,7 +26982,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="805" spans="1:3" ht="28.2" thickBot="1">
+    <row r="805" spans="1:3" ht="15" thickBot="1">
       <c r="A805" s="2" t="s">
         <v>1804</v>
       </c>
@@ -26989,7 +26993,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="806" spans="1:3" ht="42" thickBot="1">
+    <row r="806" spans="1:3" ht="15" thickBot="1">
       <c r="A806" s="1" t="s">
         <v>1804</v>
       </c>
@@ -27000,7 +27004,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="807" spans="1:3" ht="28.2" thickBot="1">
+    <row r="807" spans="1:3" ht="15" thickBot="1">
       <c r="A807" s="2" t="s">
         <v>1804</v>
       </c>
@@ -27011,7 +27015,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="808" spans="1:3" ht="28.2" thickBot="1">
+    <row r="808" spans="1:3" ht="15" thickBot="1">
       <c r="A808" s="1" t="s">
         <v>1804</v>
       </c>
@@ -27022,7 +27026,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="809" spans="1:3" ht="42" thickBot="1">
+    <row r="809" spans="1:3" ht="28.2" thickBot="1">
       <c r="A809" s="2" t="s">
         <v>1804</v>
       </c>
@@ -27033,7 +27037,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="810" spans="1:3" ht="28.2" thickBot="1">
+    <row r="810" spans="1:3" ht="15" thickBot="1">
       <c r="A810" s="1" t="s">
         <v>1804</v>
       </c>
@@ -27044,7 +27048,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="811" spans="1:3" ht="55.8" thickBot="1">
+    <row r="811" spans="1:3" ht="28.2" thickBot="1">
       <c r="A811" s="2" t="s">
         <v>1804</v>
       </c>
@@ -27055,7 +27059,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="812" spans="1:3" ht="28.2" thickBot="1">
+    <row r="812" spans="1:3" ht="15" thickBot="1">
       <c r="A812" s="1" t="s">
         <v>1804</v>
       </c>
@@ -27066,7 +27070,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="813" spans="1:3" ht="28.2" thickBot="1">
+    <row r="813" spans="1:3" ht="15" thickBot="1">
       <c r="A813" s="2" t="s">
         <v>1804</v>
       </c>
@@ -27077,7 +27081,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="814" spans="1:3" ht="28.2" thickBot="1">
+    <row r="814" spans="1:3" ht="15" thickBot="1">
       <c r="A814" s="1" t="s">
         <v>1804</v>
       </c>
@@ -27088,7 +27092,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="815" spans="1:3" ht="28.2" thickBot="1">
+    <row r="815" spans="1:3" ht="15" thickBot="1">
       <c r="A815" s="2" t="s">
         <v>1804</v>
       </c>
@@ -27099,7 +27103,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="816" spans="1:3" ht="28.2" thickBot="1">
+    <row r="816" spans="1:3" ht="15" thickBot="1">
       <c r="A816" s="1" t="s">
         <v>1804</v>
       </c>
@@ -27110,7 +27114,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="817" spans="1:3" ht="28.2" thickBot="1">
+    <row r="817" spans="1:3" ht="15" thickBot="1">
       <c r="A817" s="2" t="s">
         <v>1804</v>
       </c>
@@ -27154,7 +27158,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="821" spans="1:3" ht="69.599999999999994" thickBot="1">
+    <row r="821" spans="1:3" ht="42" thickBot="1">
       <c r="A821" s="2" t="s">
         <v>1804</v>
       </c>
@@ -27187,7 +27191,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="824" spans="1:3" ht="69.599999999999994" thickBot="1">
+    <row r="824" spans="1:3" ht="42" thickBot="1">
       <c r="A824" s="1" t="s">
         <v>1804</v>
       </c>
@@ -27209,7 +27213,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="826" spans="1:3" ht="83.4" thickBot="1">
+    <row r="826" spans="1:3" ht="42" thickBot="1">
       <c r="A826" s="1" t="s">
         <v>1804</v>
       </c>
@@ -27308,7 +27312,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="835" spans="1:3" ht="69.599999999999994" thickBot="1">
+    <row r="835" spans="1:3" ht="42" thickBot="1">
       <c r="A835" s="2" t="s">
         <v>1804</v>
       </c>
@@ -27385,7 +27389,7 @@
         <v>1907</v>
       </c>
     </row>
-    <row r="842" spans="1:3" ht="55.8" thickBot="1">
+    <row r="842" spans="1:3" ht="42" thickBot="1">
       <c r="A842" s="1" t="s">
         <v>1804</v>
       </c>
@@ -27440,7 +27444,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="847" spans="1:3" ht="55.8" thickBot="1">
+    <row r="847" spans="1:3" ht="42" thickBot="1">
       <c r="A847" s="2" t="s">
         <v>1804</v>
       </c>
@@ -27484,7 +27488,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="851" spans="1:3" ht="28.2" thickBot="1">
+    <row r="851" spans="1:3" ht="15" thickBot="1">
       <c r="A851" s="2" t="s">
         <v>1804</v>
       </c>
@@ -27495,7 +27499,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="852" spans="1:3" ht="28.2" thickBot="1">
+    <row r="852" spans="1:3" ht="15" thickBot="1">
       <c r="A852" s="1" t="s">
         <v>1804</v>
       </c>
@@ -27506,7 +27510,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="853" spans="1:3" ht="28.2" thickBot="1">
+    <row r="853" spans="1:3" ht="15" thickBot="1">
       <c r="A853" s="2" t="s">
         <v>1804</v>
       </c>
@@ -27517,7 +27521,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="854" spans="1:3" ht="28.2" thickBot="1">
+    <row r="854" spans="1:3" ht="15" thickBot="1">
       <c r="A854" s="1" t="s">
         <v>1804</v>
       </c>
@@ -27528,7 +27532,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="855" spans="1:3" ht="28.2" thickBot="1">
+    <row r="855" spans="1:3" ht="15" thickBot="1">
       <c r="A855" s="2" t="s">
         <v>1804</v>
       </c>
@@ -27539,7 +27543,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="856" spans="1:3" ht="28.2" thickBot="1">
+    <row r="856" spans="1:3" ht="15" thickBot="1">
       <c r="A856" s="1" t="s">
         <v>1804</v>
       </c>
@@ -27550,7 +27554,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="857" spans="1:3" ht="42" thickBot="1">
+    <row r="857" spans="1:3" ht="15" thickBot="1">
       <c r="A857" s="2" t="s">
         <v>1804</v>
       </c>
@@ -27561,7 +27565,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="858" spans="1:3" ht="28.2" thickBot="1">
+    <row r="858" spans="1:3" ht="15" thickBot="1">
       <c r="A858" s="1" t="s">
         <v>1804</v>
       </c>
@@ -27572,7 +27576,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="859" spans="1:3" ht="83.4" thickBot="1">
+    <row r="859" spans="1:3" ht="42" thickBot="1">
       <c r="A859" s="2" t="s">
         <v>1804</v>
       </c>
@@ -27583,7 +27587,7 @@
         <v>1926</v>
       </c>
     </row>
-    <row r="860" spans="1:3" ht="28.2" thickBot="1">
+    <row r="860" spans="1:3" ht="15" thickBot="1">
       <c r="A860" s="1" t="s">
         <v>1804</v>
       </c>
@@ -27594,7 +27598,7 @@
         <v>1927</v>
       </c>
     </row>
-    <row r="861" spans="1:3" ht="28.2" thickBot="1">
+    <row r="861" spans="1:3" ht="15" thickBot="1">
       <c r="A861" s="2" t="s">
         <v>1804</v>
       </c>
@@ -27605,7 +27609,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="862" spans="1:3" ht="42" thickBot="1">
+    <row r="862" spans="1:3" ht="15" thickBot="1">
       <c r="A862" s="1" t="s">
         <v>1804</v>
       </c>
@@ -27616,7 +27620,7 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="863" spans="1:3" ht="28.2" thickBot="1">
+    <row r="863" spans="1:3" ht="15" thickBot="1">
       <c r="A863" s="2" t="s">
         <v>1804</v>
       </c>
@@ -27627,7 +27631,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="864" spans="1:3" ht="55.8" thickBot="1">
+    <row r="864" spans="1:3" ht="28.2" thickBot="1">
       <c r="A864" s="1" t="s">
         <v>1804</v>
       </c>
@@ -27638,7 +27642,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="865" spans="1:3" ht="28.2" thickBot="1">
+    <row r="865" spans="1:3" ht="15" thickBot="1">
       <c r="A865" s="2" t="s">
         <v>1804</v>
       </c>
@@ -27649,7 +27653,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="866" spans="1:3" ht="28.2" thickBot="1">
+    <row r="866" spans="1:3" ht="15" thickBot="1">
       <c r="A866" s="1" t="s">
         <v>1804</v>
       </c>
@@ -27660,7 +27664,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="867" spans="1:3" ht="28.2" thickBot="1">
+    <row r="867" spans="1:3" ht="15" thickBot="1">
       <c r="A867" s="2" t="s">
         <v>1804</v>
       </c>
@@ -27671,7 +27675,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="868" spans="1:3" ht="28.2" thickBot="1">
+    <row r="868" spans="1:3" ht="15" thickBot="1">
       <c r="A868" s="1" t="s">
         <v>1804</v>
       </c>
@@ -27682,7 +27686,7 @@
         <v>1935</v>
       </c>
     </row>
-    <row r="869" spans="1:3" ht="28.2" thickBot="1">
+    <row r="869" spans="1:3" ht="15" thickBot="1">
       <c r="A869" s="2" t="s">
         <v>1804</v>
       </c>
@@ -27693,7 +27697,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="870" spans="1:3" ht="55.8" thickBot="1">
+    <row r="870" spans="1:3" ht="15" thickBot="1">
       <c r="A870" s="1" t="s">
         <v>1804</v>
       </c>
@@ -27704,7 +27708,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="871" spans="1:3" ht="28.2" thickBot="1">
+    <row r="871" spans="1:3" ht="15" thickBot="1">
       <c r="A871" s="2" t="s">
         <v>1804</v>
       </c>
@@ -27715,7 +27719,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="872" spans="1:3" ht="55.8" thickBot="1">
+    <row r="872" spans="1:3" ht="28.2" thickBot="1">
       <c r="A872" s="1" t="s">
         <v>1804</v>
       </c>
@@ -27726,7 +27730,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="873" spans="1:3" ht="28.2" thickBot="1">
+    <row r="873" spans="1:3" ht="15" thickBot="1">
       <c r="A873" s="2" t="s">
         <v>1804</v>
       </c>
@@ -27737,7 +27741,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="874" spans="1:3" ht="42" thickBot="1">
+    <row r="874" spans="1:3" ht="15" thickBot="1">
       <c r="A874" s="1" t="s">
         <v>1804</v>
       </c>
@@ -27748,7 +27752,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="875" spans="1:3" ht="55.8" thickBot="1">
+    <row r="875" spans="1:3" ht="15" thickBot="1">
       <c r="A875" s="2" t="s">
         <v>1804</v>
       </c>
@@ -27759,7 +27763,7 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="876" spans="1:3" ht="42" thickBot="1">
+    <row r="876" spans="1:3" ht="15" thickBot="1">
       <c r="A876" s="1" t="s">
         <v>1804</v>
       </c>
@@ -27770,7 +27774,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="877" spans="1:3" ht="55.8" thickBot="1">
+    <row r="877" spans="1:3" ht="28.2" thickBot="1">
       <c r="A877" s="2" t="s">
         <v>1804</v>
       </c>
@@ -27781,7 +27785,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="878" spans="1:3" ht="28.2" thickBot="1">
+    <row r="878" spans="1:3" ht="15" thickBot="1">
       <c r="A878" s="1" t="s">
         <v>1804</v>
       </c>
@@ -27792,7 +27796,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="879" spans="1:3" ht="28.2" thickBot="1">
+    <row r="879" spans="1:3" ht="15" thickBot="1">
       <c r="A879" s="2" t="s">
         <v>1804</v>
       </c>
@@ -27803,7 +27807,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="880" spans="1:3" ht="28.2" thickBot="1">
+    <row r="880" spans="1:3" ht="15" thickBot="1">
       <c r="A880" s="1" t="s">
         <v>1804</v>
       </c>
@@ -27814,7 +27818,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="881" spans="1:3" ht="42" thickBot="1">
+    <row r="881" spans="1:3" ht="15" thickBot="1">
       <c r="A881" s="2" t="s">
         <v>1804</v>
       </c>
@@ -27825,7 +27829,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="882" spans="1:3" ht="28.2" thickBot="1">
+    <row r="882" spans="1:3" ht="15" thickBot="1">
       <c r="A882" s="1" t="s">
         <v>1804</v>
       </c>
@@ -27836,7 +27840,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="883" spans="1:3" ht="28.2" thickBot="1">
+    <row r="883" spans="1:3" ht="15" thickBot="1">
       <c r="A883" s="2" t="s">
         <v>1804</v>
       </c>
@@ -27847,7 +27851,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="884" spans="1:3" ht="28.2" thickBot="1">
+    <row r="884" spans="1:3" ht="15" thickBot="1">
       <c r="A884" s="1" t="s">
         <v>1804</v>
       </c>
@@ -27858,7 +27862,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="885" spans="1:3" ht="28.2" thickBot="1">
+    <row r="885" spans="1:3" ht="15" thickBot="1">
       <c r="A885" s="2" t="s">
         <v>1952</v>
       </c>
@@ -27869,7 +27873,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="886" spans="1:3" ht="28.2" thickBot="1">
+    <row r="886" spans="1:3" ht="15" thickBot="1">
       <c r="A886" s="1" t="s">
         <v>1952</v>
       </c>
@@ -27880,7 +27884,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="887" spans="1:3" ht="28.2" thickBot="1">
+    <row r="887" spans="1:3" ht="15" thickBot="1">
       <c r="A887" s="2" t="s">
         <v>1952</v>
       </c>
@@ -27891,7 +27895,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="888" spans="1:3" ht="28.2" thickBot="1">
+    <row r="888" spans="1:3" ht="15" thickBot="1">
       <c r="A888" s="1" t="s">
         <v>1952</v>
       </c>
@@ -27902,7 +27906,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="889" spans="1:3" ht="28.2" thickBot="1">
+    <row r="889" spans="1:3" ht="15" thickBot="1">
       <c r="A889" s="2" t="s">
         <v>1952</v>
       </c>
@@ -27913,7 +27917,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="890" spans="1:3" ht="28.2" thickBot="1">
+    <row r="890" spans="1:3" ht="15" thickBot="1">
       <c r="A890" s="1" t="s">
         <v>1952</v>
       </c>
@@ -27924,7 +27928,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="891" spans="1:3" ht="42" thickBot="1">
+    <row r="891" spans="1:3" ht="15" thickBot="1">
       <c r="A891" s="2" t="s">
         <v>1952</v>
       </c>
@@ -27935,7 +27939,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="892" spans="1:3" ht="28.2" thickBot="1">
+    <row r="892" spans="1:3" ht="15" thickBot="1">
       <c r="A892" s="1" t="s">
         <v>1952</v>
       </c>
@@ -27946,7 +27950,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="893" spans="1:3" ht="28.2" thickBot="1">
+    <row r="893" spans="1:3" ht="15" thickBot="1">
       <c r="A893" s="2" t="s">
         <v>1952</v>
       </c>
@@ -27957,7 +27961,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="894" spans="1:3" ht="28.2" thickBot="1">
+    <row r="894" spans="1:3" ht="15" thickBot="1">
       <c r="A894" s="1" t="s">
         <v>1952</v>
       </c>
@@ -27968,7 +27972,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="895" spans="1:3" ht="28.2" thickBot="1">
+    <row r="895" spans="1:3" ht="15" thickBot="1">
       <c r="A895" s="2" t="s">
         <v>1952</v>
       </c>
@@ -27979,7 +27983,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="896" spans="1:3" ht="28.2" thickBot="1">
+    <row r="896" spans="1:3" ht="15" thickBot="1">
       <c r="A896" s="1" t="s">
         <v>1952</v>
       </c>
@@ -27990,7 +27994,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="897" spans="1:3" ht="28.2" thickBot="1">
+    <row r="897" spans="1:3" ht="15" thickBot="1">
       <c r="A897" s="2" t="s">
         <v>1952</v>
       </c>
@@ -28001,7 +28005,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="898" spans="1:3" ht="55.8" thickBot="1">
+    <row r="898" spans="1:3" ht="28.2" thickBot="1">
       <c r="A898" s="1" t="s">
         <v>1952</v>
       </c>
@@ -28012,7 +28016,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="899" spans="1:3" ht="28.2" thickBot="1">
+    <row r="899" spans="1:3" ht="15" thickBot="1">
       <c r="A899" s="2" t="s">
         <v>1952</v>
       </c>
@@ -28023,7 +28027,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="900" spans="1:3" ht="28.2" thickBot="1">
+    <row r="900" spans="1:3" ht="15" thickBot="1">
       <c r="A900" s="1" t="s">
         <v>1952</v>
       </c>
@@ -28034,7 +28038,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="901" spans="1:3" ht="28.2" thickBot="1">
+    <row r="901" spans="1:3" ht="15" thickBot="1">
       <c r="A901" s="2" t="s">
         <v>1952</v>
       </c>
@@ -28045,7 +28049,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="902" spans="1:3" ht="28.2" thickBot="1">
+    <row r="902" spans="1:3" ht="15" thickBot="1">
       <c r="A902" s="1" t="s">
         <v>1952</v>
       </c>
@@ -28056,7 +28060,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="903" spans="1:3" ht="28.2" thickBot="1">
+    <row r="903" spans="1:3" ht="15" thickBot="1">
       <c r="A903" s="2" t="s">
         <v>1952</v>
       </c>
@@ -28067,7 +28071,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="904" spans="1:3" ht="42" thickBot="1">
+    <row r="904" spans="1:3" ht="15" thickBot="1">
       <c r="A904" s="1" t="s">
         <v>1952</v>
       </c>
@@ -28078,7 +28082,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="905" spans="1:3" ht="28.2" thickBot="1">
+    <row r="905" spans="1:3" ht="15" thickBot="1">
       <c r="A905" s="2" t="s">
         <v>1952</v>
       </c>
@@ -28089,7 +28093,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="906" spans="1:3" ht="28.2" thickBot="1">
+    <row r="906" spans="1:3" ht="15" thickBot="1">
       <c r="A906" s="1" t="s">
         <v>1952</v>
       </c>
@@ -28100,7 +28104,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="907" spans="1:3" ht="28.2" thickBot="1">
+    <row r="907" spans="1:3" ht="15" thickBot="1">
       <c r="A907" s="2" t="s">
         <v>1952</v>
       </c>
@@ -28111,7 +28115,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="908" spans="1:3" ht="28.2" thickBot="1">
+    <row r="908" spans="1:3" ht="15" thickBot="1">
       <c r="A908" s="1" t="s">
         <v>1952</v>
       </c>
@@ -28122,7 +28126,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="909" spans="1:3" ht="28.2" thickBot="1">
+    <row r="909" spans="1:3" ht="15" thickBot="1">
       <c r="A909" s="2" t="s">
         <v>1952</v>
       </c>
@@ -28133,7 +28137,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="910" spans="1:3" ht="28.2" thickBot="1">
+    <row r="910" spans="1:3" ht="15" thickBot="1">
       <c r="A910" s="1" t="s">
         <v>1952</v>
       </c>
@@ -28144,7 +28148,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="911" spans="1:3" ht="28.2" thickBot="1">
+    <row r="911" spans="1:3" ht="15" thickBot="1">
       <c r="A911" s="2" t="s">
         <v>1952</v>
       </c>
@@ -28155,7 +28159,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="912" spans="1:3" ht="28.2" thickBot="1">
+    <row r="912" spans="1:3" ht="15" thickBot="1">
       <c r="A912" s="1" t="s">
         <v>1952</v>
       </c>
@@ -28166,7 +28170,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="913" spans="1:3" ht="28.2" thickBot="1">
+    <row r="913" spans="1:3" ht="15" thickBot="1">
       <c r="A913" s="2" t="s">
         <v>1952</v>
       </c>
@@ -28177,7 +28181,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="914" spans="1:3" ht="28.2" thickBot="1">
+    <row r="914" spans="1:3" ht="15" thickBot="1">
       <c r="A914" s="1" t="s">
         <v>1952</v>
       </c>
@@ -28188,7 +28192,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="915" spans="1:3" ht="28.2" thickBot="1">
+    <row r="915" spans="1:3" ht="15" thickBot="1">
       <c r="A915" s="2" t="s">
         <v>1952</v>
       </c>
@@ -28199,7 +28203,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="916" spans="1:3" ht="28.2" thickBot="1">
+    <row r="916" spans="1:3" ht="15" thickBot="1">
       <c r="A916" s="1" t="s">
         <v>1952</v>
       </c>
@@ -28210,7 +28214,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="917" spans="1:3" ht="28.2" thickBot="1">
+    <row r="917" spans="1:3" ht="15" thickBot="1">
       <c r="A917" s="2" t="s">
         <v>1952</v>
       </c>
@@ -28221,7 +28225,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="918" spans="1:3" ht="28.2" thickBot="1">
+    <row r="918" spans="1:3" ht="15" thickBot="1">
       <c r="A918" s="1" t="s">
         <v>1952</v>
       </c>
@@ -28232,7 +28236,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="919" spans="1:3" ht="28.2" thickBot="1">
+    <row r="919" spans="1:3" ht="15" thickBot="1">
       <c r="A919" s="2" t="s">
         <v>1952</v>
       </c>
@@ -28243,7 +28247,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="920" spans="1:3" ht="28.2" thickBot="1">
+    <row r="920" spans="1:3" ht="15" thickBot="1">
       <c r="A920" s="1" t="s">
         <v>1952</v>
       </c>
@@ -28254,7 +28258,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="921" spans="1:3" ht="28.2" thickBot="1">
+    <row r="921" spans="1:3" ht="15" thickBot="1">
       <c r="A921" s="2" t="s">
         <v>1952</v>
       </c>
@@ -28265,7 +28269,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="922" spans="1:3" ht="28.2" thickBot="1">
+    <row r="922" spans="1:3" ht="15" thickBot="1">
       <c r="A922" s="1" t="s">
         <v>1952</v>
       </c>
@@ -28276,7 +28280,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="923" spans="1:3" ht="28.2" thickBot="1">
+    <row r="923" spans="1:3" ht="15" thickBot="1">
       <c r="A923" s="2" t="s">
         <v>1952</v>
       </c>
@@ -28287,7 +28291,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="924" spans="1:3" ht="28.2" thickBot="1">
+    <row r="924" spans="1:3" ht="15" thickBot="1">
       <c r="A924" s="1" t="s">
         <v>1952</v>
       </c>
@@ -28298,7 +28302,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="925" spans="1:3" ht="28.2" thickBot="1">
+    <row r="925" spans="1:3" ht="15" thickBot="1">
       <c r="A925" s="2" t="s">
         <v>1952</v>
       </c>
@@ -28309,7 +28313,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="926" spans="1:3" ht="28.2" thickBot="1">
+    <row r="926" spans="1:3" ht="15" thickBot="1">
       <c r="A926" s="1" t="s">
         <v>1952</v>
       </c>
@@ -28320,7 +28324,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="927" spans="1:3" ht="28.2" thickBot="1">
+    <row r="927" spans="1:3" ht="15" thickBot="1">
       <c r="A927" s="2" t="s">
         <v>1952</v>
       </c>
@@ -28331,7 +28335,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="928" spans="1:3" ht="28.2" thickBot="1">
+    <row r="928" spans="1:3" ht="15" thickBot="1">
       <c r="A928" s="1" t="s">
         <v>1952</v>
       </c>
@@ -28342,7 +28346,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="929" spans="1:3" ht="28.2" thickBot="1">
+    <row r="929" spans="1:3" ht="15" thickBot="1">
       <c r="A929" s="2" t="s">
         <v>1952</v>
       </c>
@@ -28353,7 +28357,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="930" spans="1:3" ht="28.2" thickBot="1">
+    <row r="930" spans="1:3" ht="15" thickBot="1">
       <c r="A930" s="1" t="s">
         <v>1952</v>
       </c>
@@ -28364,7 +28368,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="931" spans="1:3" ht="28.2" thickBot="1">
+    <row r="931" spans="1:3" ht="15" thickBot="1">
       <c r="A931" s="2" t="s">
         <v>1952</v>
       </c>
@@ -28375,7 +28379,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="932" spans="1:3" ht="28.2" thickBot="1">
+    <row r="932" spans="1:3" ht="15" thickBot="1">
       <c r="A932" s="1" t="s">
         <v>1952</v>
       </c>
@@ -28386,7 +28390,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="933" spans="1:3" ht="28.2" thickBot="1">
+    <row r="933" spans="1:3" ht="15" thickBot="1">
       <c r="A933" s="2" t="s">
         <v>1952</v>
       </c>
@@ -28397,7 +28401,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="934" spans="1:3" ht="28.2" thickBot="1">
+    <row r="934" spans="1:3" ht="15" thickBot="1">
       <c r="A934" s="1" t="s">
         <v>1952</v>
       </c>
@@ -28408,7 +28412,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="935" spans="1:3" ht="28.2" thickBot="1">
+    <row r="935" spans="1:3" ht="15" thickBot="1">
       <c r="A935" s="2" t="s">
         <v>1952</v>
       </c>
@@ -28419,7 +28423,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="936" spans="1:3" ht="28.2" thickBot="1">
+    <row r="936" spans="1:3" ht="15" thickBot="1">
       <c r="A936" s="1" t="s">
         <v>1952</v>
       </c>
@@ -28430,7 +28434,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="937" spans="1:3" ht="28.2" thickBot="1">
+    <row r="937" spans="1:3" ht="15" thickBot="1">
       <c r="A937" s="2" t="s">
         <v>1952</v>
       </c>
@@ -28441,7 +28445,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="938" spans="1:3" ht="28.2" thickBot="1">
+    <row r="938" spans="1:3" ht="15" thickBot="1">
       <c r="A938" s="1" t="s">
         <v>1952</v>
       </c>
@@ -28452,7 +28456,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="939" spans="1:3" ht="28.2" thickBot="1">
+    <row r="939" spans="1:3" ht="15" thickBot="1">
       <c r="A939" s="2" t="s">
         <v>1952</v>
       </c>
@@ -28463,7 +28467,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="940" spans="1:3" ht="28.2" thickBot="1">
+    <row r="940" spans="1:3" ht="15" thickBot="1">
       <c r="A940" s="1" t="s">
         <v>1952</v>
       </c>
@@ -28474,7 +28478,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="941" spans="1:3" ht="28.2" thickBot="1">
+    <row r="941" spans="1:3" ht="15" thickBot="1">
       <c r="A941" s="2" t="s">
         <v>1952</v>
       </c>
@@ -28485,7 +28489,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="942" spans="1:3" ht="28.2" thickBot="1">
+    <row r="942" spans="1:3" ht="15" thickBot="1">
       <c r="A942" s="1" t="s">
         <v>1952</v>
       </c>
@@ -28496,7 +28500,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="943" spans="1:3" ht="28.2" thickBot="1">
+    <row r="943" spans="1:3" ht="15" thickBot="1">
       <c r="A943" s="2" t="s">
         <v>1952</v>
       </c>
@@ -28507,7 +28511,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="944" spans="1:3" ht="42" thickBot="1">
+    <row r="944" spans="1:3" ht="28.2" thickBot="1">
       <c r="A944" s="1" t="s">
         <v>1952</v>
       </c>
@@ -28518,7 +28522,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="945" spans="1:3" ht="28.2" thickBot="1">
+    <row r="945" spans="1:3" ht="15" thickBot="1">
       <c r="A945" s="2" t="s">
         <v>1952</v>
       </c>
@@ -28529,7 +28533,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="946" spans="1:3" ht="42" thickBot="1">
+    <row r="946" spans="1:3" ht="15" thickBot="1">
       <c r="A946" s="1" t="s">
         <v>1952</v>
       </c>
@@ -28540,7 +28544,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="947" spans="1:3" ht="28.2" thickBot="1">
+    <row r="947" spans="1:3" ht="15" thickBot="1">
       <c r="A947" s="2" t="s">
         <v>1952</v>
       </c>
@@ -28551,7 +28555,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="948" spans="1:3" ht="42" thickBot="1">
+    <row r="948" spans="1:3" ht="15" thickBot="1">
       <c r="A948" s="1" t="s">
         <v>1952</v>
       </c>
@@ -28562,7 +28566,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="949" spans="1:3" ht="42" thickBot="1">
+    <row r="949" spans="1:3" ht="15" thickBot="1">
       <c r="A949" s="2" t="s">
         <v>1952</v>
       </c>
@@ -28573,7 +28577,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="950" spans="1:3" ht="28.2" thickBot="1">
+    <row r="950" spans="1:3" ht="15" thickBot="1">
       <c r="A950" s="1" t="s">
         <v>1952</v>
       </c>
@@ -28584,7 +28588,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="951" spans="1:3" ht="28.2" thickBot="1">
+    <row r="951" spans="1:3" ht="15" thickBot="1">
       <c r="A951" s="2" t="s">
         <v>1952</v>
       </c>
@@ -28595,7 +28599,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="952" spans="1:3" ht="28.2" thickBot="1">
+    <row r="952" spans="1:3" ht="15" thickBot="1">
       <c r="A952" s="1" t="s">
         <v>1952</v>
       </c>
@@ -28606,7 +28610,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="953" spans="1:3" ht="28.2" thickBot="1">
+    <row r="953" spans="1:3" ht="15" thickBot="1">
       <c r="A953" s="2" t="s">
         <v>1952</v>
       </c>
@@ -28617,7 +28621,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="954" spans="1:3" ht="28.2" thickBot="1">
+    <row r="954" spans="1:3" ht="15" thickBot="1">
       <c r="A954" s="1" t="s">
         <v>1952</v>
       </c>
@@ -28628,7 +28632,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="955" spans="1:3" ht="28.2" thickBot="1">
+    <row r="955" spans="1:3" ht="15" thickBot="1">
       <c r="A955" s="2" t="s">
         <v>1952</v>
       </c>
@@ -28639,7 +28643,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="956" spans="1:3" ht="42" thickBot="1">
+    <row r="956" spans="1:3" ht="15" thickBot="1">
       <c r="A956" s="1" t="s">
         <v>1952</v>
       </c>
@@ -28650,7 +28654,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="957" spans="1:3" ht="28.2" thickBot="1">
+    <row r="957" spans="1:3" ht="15" thickBot="1">
       <c r="A957" s="2" t="s">
         <v>1952</v>
       </c>
@@ -28661,7 +28665,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="958" spans="1:3" ht="55.8" thickBot="1">
+    <row r="958" spans="1:3" ht="28.2" thickBot="1">
       <c r="A958" s="1" t="s">
         <v>1952</v>
       </c>
@@ -28672,7 +28676,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="959" spans="1:3" ht="28.2" thickBot="1">
+    <row r="959" spans="1:3" ht="15" thickBot="1">
       <c r="A959" s="2" t="s">
         <v>1952</v>
       </c>
@@ -28683,7 +28687,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="960" spans="1:3" ht="28.2" thickBot="1">
+    <row r="960" spans="1:3" ht="15" thickBot="1">
       <c r="A960" s="1" t="s">
         <v>1952</v>
       </c>
@@ -28694,7 +28698,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="961" spans="1:3" ht="28.2" thickBot="1">
+    <row r="961" spans="1:3" ht="15" thickBot="1">
       <c r="A961" s="2" t="s">
         <v>1952</v>
       </c>
@@ -28705,7 +28709,7 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="962" spans="1:3" ht="28.2" thickBot="1">
+    <row r="962" spans="1:3" ht="15" thickBot="1">
       <c r="A962" s="1" t="s">
         <v>1952</v>
       </c>
@@ -28716,7 +28720,7 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="963" spans="1:3" ht="28.2" thickBot="1">
+    <row r="963" spans="1:3" ht="15" thickBot="1">
       <c r="A963" s="2" t="s">
         <v>1952</v>
       </c>
@@ -28727,7 +28731,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="964" spans="1:3" ht="28.2" thickBot="1">
+    <row r="964" spans="1:3" ht="15" thickBot="1">
       <c r="A964" s="1" t="s">
         <v>1952</v>
       </c>
@@ -28738,7 +28742,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="965" spans="1:3" ht="28.2" thickBot="1">
+    <row r="965" spans="1:3" ht="15" thickBot="1">
       <c r="A965" s="2" t="s">
         <v>1952</v>
       </c>
@@ -28749,7 +28753,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="966" spans="1:3" ht="28.2" thickBot="1">
+    <row r="966" spans="1:3" ht="15" thickBot="1">
       <c r="A966" s="1" t="s">
         <v>1952</v>
       </c>
@@ -28760,7 +28764,7 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="967" spans="1:3" ht="28.2" thickBot="1">
+    <row r="967" spans="1:3" ht="15" thickBot="1">
       <c r="A967" s="2" t="s">
         <v>1952</v>
       </c>
@@ -28771,7 +28775,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="968" spans="1:3" ht="28.2" thickBot="1">
+    <row r="968" spans="1:3" ht="15" thickBot="1">
       <c r="A968" s="1" t="s">
         <v>1952</v>
       </c>
@@ -28782,7 +28786,7 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="969" spans="1:3" ht="42" thickBot="1">
+    <row r="969" spans="1:3" ht="28.2" thickBot="1">
       <c r="A969" s="2" t="s">
         <v>1952</v>
       </c>
@@ -28793,7 +28797,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="970" spans="1:3" ht="42" thickBot="1">
+    <row r="970" spans="1:3" ht="28.2" thickBot="1">
       <c r="A970" s="1" t="s">
         <v>1952</v>
       </c>
@@ -28903,7 +28907,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="980" spans="1:3" ht="42" thickBot="1">
+    <row r="980" spans="1:3" ht="28.2" thickBot="1">
       <c r="A980" s="1" t="s">
         <v>1952</v>
       </c>
@@ -28914,7 +28918,7 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="981" spans="1:3" ht="97.2" thickBot="1">
+    <row r="981" spans="1:3" ht="42" thickBot="1">
       <c r="A981" s="2" t="s">
         <v>1952</v>
       </c>
@@ -28947,7 +28951,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="984" spans="1:3" ht="69.599999999999994" thickBot="1">
+    <row r="984" spans="1:3" ht="28.2" thickBot="1">
       <c r="A984" s="1" t="s">
         <v>1952</v>
       </c>
@@ -29024,7 +29028,7 @@
         <v>2061</v>
       </c>
     </row>
-    <row r="991" spans="1:3" ht="42" thickBot="1">
+    <row r="991" spans="1:3" ht="28.2" thickBot="1">
       <c r="A991" s="2" t="s">
         <v>1952</v>
       </c>
@@ -29035,7 +29039,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="992" spans="1:3" ht="42" thickBot="1">
+    <row r="992" spans="1:3" ht="28.2" thickBot="1">
       <c r="A992" s="1" t="s">
         <v>1952</v>
       </c>
@@ -29046,7 +29050,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="993" spans="1:3" ht="42" thickBot="1">
+    <row r="993" spans="1:3" ht="28.2" thickBot="1">
       <c r="A993" s="2" t="s">
         <v>1952</v>
       </c>
@@ -29233,7 +29237,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="1010" spans="1:3" ht="42" thickBot="1">
+    <row r="1010" spans="1:3" ht="28.2" thickBot="1">
       <c r="A1010" s="1" t="s">
         <v>1952</v>
       </c>
@@ -29244,7 +29248,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="1011" spans="1:3" ht="55.8" thickBot="1">
+    <row r="1011" spans="1:3" ht="28.2" thickBot="1">
       <c r="A1011" s="2" t="s">
         <v>1952</v>
       </c>
@@ -29464,7 +29468,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="1031" spans="1:3" ht="18">
+    <row r="1031" spans="1:3" ht="17.399999999999999">
       <c r="A1031" s="3"/>
     </row>
   </sheetData>
